--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration-1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="89">
   <si>
     <t>STORY</t>
   </si>
@@ -237,6 +237,54 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>#1.3</t>
+  </si>
+  <si>
+    <t>Show students's personal data in DB</t>
+  </si>
+  <si>
+    <t>#3.1</t>
+  </si>
+  <si>
+    <t>Show list of students</t>
+  </si>
+  <si>
+    <t>#13.1</t>
+  </si>
+  <si>
+    <t>#3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add students in a dorm </t>
+  </si>
+  <si>
+    <t>Nazlı &amp; Gamze</t>
+  </si>
+  <si>
+    <t>Showing capacity of room and dorm in a chart</t>
+  </si>
+  <si>
+    <t>Adding emergency contacts for student's</t>
+  </si>
+  <si>
+    <t>Add Student Update(new Combobox usage)</t>
+  </si>
+  <si>
+    <t>Add Room Updated</t>
+  </si>
+  <si>
+    <t>#1.4</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>Show dorm capacity</t>
+  </si>
+  <si>
+    <t>#14.1</t>
   </si>
 </sst>
 </file>
@@ -605,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -687,6 +735,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,11 +896,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192754048"/>
-        <c:axId val="192755584"/>
+        <c:axId val="172839296"/>
+        <c:axId val="172840832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192754048"/>
+        <c:axId val="172839296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192755584"/>
+        <c:crossAx val="172840832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -864,7 +918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192755584"/>
+        <c:axId val="172840832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +929,381 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192754048"/>
+        <c:crossAx val="172839296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal Task Remaining</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration-1'!$P$27:$U$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration-1'!$P$26:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Tasks Remaining</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration-1'!$P$25:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="121794944"/>
+        <c:axId val="121796480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="121794944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121796480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121796480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121794944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal Task Remaining</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration-1'!$P$27:$U$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration-1'!$P$26:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Tasks Remaining</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration-1'!$P$25:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="67959040"/>
+        <c:axId val="68132864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67959040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68132864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68132864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67959040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,6 +1379,242 @@
         <a:xfrm>
           <a:off x="3533775" y="781049"/>
           <a:ext cx="5476875" cy="1066801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F1FCBC"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1"/>
+            <a:t>Description:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DMS is a desktop application which enables dormitory managers to track students living in their dorms.They will be able to enter students' registrations including student's information (names, surnames, e-mails etc), residents' fees, debts and also they can define the room types and their prices. Besides, this program shows the room of the students and their start/end dates of staying in the dorm.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="885824"/>
+          <a:ext cx="5715000" cy="1066801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F1FCBC"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1"/>
+            <a:t>Description:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DMS is a desktop application which enables dormitory managers to track students living in their dorms.They will be able to enter students' registrations including student's information (names, surnames, e-mails etc), residents' fees, debts and also they can define the room types and their prices. Besides, this program shows the room of the students and their start/end dates of staying in the dorm.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="885824"/>
+          <a:ext cx="5715000" cy="1066801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1302,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,14 +1991,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1373,22 +2037,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -1945,25 +2609,1282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D2" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+    </row>
+    <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="48"/>
+      <c r="J12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="42">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="J15" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="J17" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="15">
+        <v>2</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="42">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="14">
+        <v>2</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="J19" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="27">
+        <v>1</v>
+      </c>
+      <c r="N19" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="42">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="6">
+        <f>SUM(M13:M19)</f>
+        <v>11</v>
+      </c>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="P22">
+        <v>65</v>
+      </c>
+      <c r="Q22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f>P25</f>
+        <v>65</v>
+      </c>
+      <c r="Q24">
+        <f>P24-R35</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="P25">
+        <f>P26</f>
+        <v>65</v>
+      </c>
+      <c r="Q25">
+        <f>Q26+(R35-Q35)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="30">
+        <v>3</v>
+      </c>
+      <c r="F26" s="30">
+        <v>10</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="P26">
+        <f>F28</f>
+        <v>65</v>
+      </c>
+      <c r="Q26">
+        <f>P26-17</f>
+        <v>48</v>
+      </c>
+      <c r="R26">
+        <v>39</v>
+      </c>
+      <c r="S26">
+        <v>26</v>
+      </c>
+      <c r="T26">
+        <v>13</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="30">
+        <v>3</v>
+      </c>
+      <c r="F27" s="30">
+        <v>4</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="P27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="4">
+        <f>SUM(F14:F26)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" s="41"/>
+    </row>
+    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="38">
+        <v>8</v>
+      </c>
+      <c r="R31" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>4</v>
+      </c>
+      <c r="R32" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>2</v>
+      </c>
+      <c r="R33" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="39">
+        <v>3</v>
+      </c>
+      <c r="R34" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P35" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35">
+        <f>SUM(Q31:Q34)</f>
+        <v>17</v>
+      </c>
+      <c r="R35">
+        <f>SUM(R31:R34)</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D2" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+    </row>
+    <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="49"/>
+      <c r="J12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="42">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="15">
+        <v>4</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="42">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="14">
+        <v>2</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="42">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="6">
+        <f>SUM(M13:M19)</f>
+        <v>12</v>
+      </c>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="P22">
+        <v>65</v>
+      </c>
+      <c r="Q22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f>P25</f>
+        <v>65</v>
+      </c>
+      <c r="Q24">
+        <f>P24-R35</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="P25">
+        <f>P26</f>
+        <v>65</v>
+      </c>
+      <c r="Q25">
+        <f>Q26+(R35-Q35)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="30">
+        <v>3</v>
+      </c>
+      <c r="F26" s="30">
+        <v>10</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="P26">
+        <f>F27</f>
+        <v>65</v>
+      </c>
+      <c r="Q26">
+        <f>P26-17</f>
+        <v>48</v>
+      </c>
+      <c r="R26">
+        <v>39</v>
+      </c>
+      <c r="S26">
+        <v>26</v>
+      </c>
+      <c r="T26">
+        <v>13</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C27" s="17"/>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4">
+        <f>SUM(F14:F26)</f>
+        <v>65</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="P27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" s="41"/>
+    </row>
+    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="38">
+        <v>8</v>
+      </c>
+      <c r="R31" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>4</v>
+      </c>
+      <c r="R32" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>2</v>
+      </c>
+      <c r="R33" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="39">
+        <v>3</v>
+      </c>
+      <c r="R34" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P35" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35">
+        <f>SUM(Q31:Q34)</f>
+        <v>17</v>
+      </c>
+      <c r="R35">
+        <f>SUM(R31:R34)</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="93">
   <si>
     <t>STORY</t>
   </si>
@@ -248,27 +248,15 @@
     <t>#3.1</t>
   </si>
   <si>
-    <t>Show list of students</t>
-  </si>
-  <si>
-    <t>#13.1</t>
-  </si>
-  <si>
     <t>#3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Add students in a dorm </t>
-  </si>
-  <si>
     <t>Nazlı &amp; Gamze</t>
   </si>
   <si>
     <t>Showing capacity of room and dorm in a chart</t>
   </si>
   <si>
-    <t>Adding emergency contacts for student's</t>
-  </si>
-  <si>
     <t>Add Student Update(new Combobox usage)</t>
   </si>
   <si>
@@ -285,6 +273,30 @@
   </si>
   <si>
     <t>#14.1</t>
+  </si>
+  <si>
+    <t>Show dorm list</t>
+  </si>
+  <si>
+    <t>Add room list according to dorms</t>
+  </si>
+  <si>
+    <t>#1.5</t>
+  </si>
+  <si>
+    <t>Adding emergency contacts of a student</t>
+  </si>
+  <si>
+    <t>Adding accomodation info of a student</t>
+  </si>
+  <si>
+    <t>#7.4</t>
+  </si>
+  <si>
+    <t>#9.1</t>
+  </si>
+  <si>
+    <t>Display student list</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -648,12 +660,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,6 +795,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,7 +830,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -896,11 +959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172839296"/>
-        <c:axId val="172840832"/>
+        <c:axId val="121938944"/>
+        <c:axId val="91478208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172839296"/>
+        <c:axId val="121938944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172840832"/>
+        <c:crossAx val="91478208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -918,7 +981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172840832"/>
+        <c:axId val="91478208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172839296"/>
+        <c:crossAx val="121938944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -954,7 +1017,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1083,11 +1146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121794944"/>
-        <c:axId val="121796480"/>
+        <c:axId val="94210048"/>
+        <c:axId val="121487360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121794944"/>
+        <c:axId val="94210048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121796480"/>
+        <c:crossAx val="121487360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1105,7 +1168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121796480"/>
+        <c:axId val="121487360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121794944"/>
+        <c:crossAx val="94210048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1141,7 +1204,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1270,11 +1333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67959040"/>
-        <c:axId val="68132864"/>
+        <c:axId val="121635328"/>
+        <c:axId val="121489088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67959040"/>
+        <c:axId val="121635328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68132864"/>
+        <c:crossAx val="121489088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1292,7 +1355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68132864"/>
+        <c:axId val="121489088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,14 +1366,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67959040"/>
+        <c:crossAx val="121635328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1445,16 +1507,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140493</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2611,22 +2673,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
@@ -2745,7 +2807,7 @@
         <v>23</v>
       </c>
       <c r="M13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>66</v>
@@ -2770,17 +2832,17 @@
       <c r="H14" s="42">
         <v>1</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>76</v>
+      <c r="J14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1</v>
       </c>
       <c r="N14" s="35" t="s">
         <v>66</v>
@@ -2804,10 +2866,10 @@
       </c>
       <c r="H15" s="42"/>
       <c r="J15" s="24" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
@@ -2838,17 +2900,17 @@
       <c r="H16" s="42">
         <v>0.6</v>
       </c>
-      <c r="J16" s="24" t="s">
-        <v>77</v>
+      <c r="J16" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="14">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2</v>
       </c>
       <c r="N16" s="35" t="s">
         <v>66</v>
@@ -2872,15 +2934,15 @@
       </c>
       <c r="H17" s="42"/>
       <c r="J17" s="24" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="15">
+        <v>86</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="14">
         <v>2</v>
       </c>
       <c r="N17" s="35" t="s">
@@ -2907,22 +2969,22 @@
         <v>1</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="13" t="s">
         <v>80</v>
       </c>
+      <c r="L18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="M18" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2939,19 +3001,19 @@
         <v>4</v>
       </c>
       <c r="H19" s="42"/>
-      <c r="J19" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="27">
-        <v>1</v>
-      </c>
-      <c r="N19" s="47" t="s">
+      <c r="J19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="14">
+        <v>4</v>
+      </c>
+      <c r="N19" s="35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2974,18 +3036,23 @@
       <c r="H20" s="42">
         <v>1</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="6">
-        <f>SUM(M13:M19)</f>
-        <v>11</v>
-      </c>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="J20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="15">
+        <v>2</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="23" t="s">
         <v>11</v>
       </c>
@@ -3002,6 +3069,21 @@
         <v>4</v>
       </c>
       <c r="H21" s="42"/>
+      <c r="J21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="27">
+        <v>1</v>
+      </c>
+      <c r="N21" s="47" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
@@ -3016,10 +3098,22 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="42"/>
+      <c r="G22" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="6">
+        <f>SUM(M13:M21)</f>
+        <v>15</v>
+      </c>
+      <c r="N22" s="17"/>
       <c r="P22">
         <v>65</v>
       </c>
@@ -3104,23 +3198,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="29" t="s">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="2">
         <v>3</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="2">
         <v>10</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="42"/>
+      <c r="H26" s="57"/>
       <c r="P26">
         <f>F28</f>
         <v>65</v>
@@ -3143,22 +3237,22 @@
       </c>
     </row>
     <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="30">
+      <c r="C27" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="54">
         <v>3</v>
       </c>
-      <c r="F27" s="30">
-        <v>4</v>
-      </c>
-      <c r="G27" s="43" t="s">
+      <c r="F27" s="54">
+        <v>4</v>
+      </c>
+      <c r="G27" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="56">
         <v>0.5</v>
       </c>
       <c r="P27" s="32" t="s">
@@ -3266,7 +3360,8 @@
     <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3552,7 +3647,7 @@
       <c r="J18" s="24"/>
       <c r="K18" s="1"/>
       <c r="L18" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M18" s="14">
         <v>2</v>

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="96">
   <si>
     <t>STORY</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>Display student list</t>
+  </si>
+  <si>
+    <t>Estimated Time (hrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade </t>
+  </si>
+  <si>
+    <t>#1.6</t>
   </si>
 </sst>
 </file>
@@ -704,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -789,12 +798,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -806,6 +809,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -830,7 +842,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -959,11 +971,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121938944"/>
-        <c:axId val="91478208"/>
+        <c:axId val="170550016"/>
+        <c:axId val="170551552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121938944"/>
+        <c:axId val="170550016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91478208"/>
+        <c:crossAx val="170551552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -981,7 +993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91478208"/>
+        <c:axId val="170551552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +1004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121938944"/>
+        <c:crossAx val="170550016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1017,7 +1029,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1077,18 +1089,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-1'!$P$26:$U$26</c:f>
+              <c:f>'Iteration-2'!$P$26:$U$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>26</c:v>
@@ -1121,15 +1133,18 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-1'!$P$25:$Q$25</c:f>
+              <c:f>'Iteration-2'!$P$38:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,11 +1161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94210048"/>
-        <c:axId val="121487360"/>
+        <c:axId val="170763008"/>
+        <c:axId val="170764544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94210048"/>
+        <c:axId val="170763008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121487360"/>
+        <c:crossAx val="170764544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1168,7 +1183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121487360"/>
+        <c:axId val="170764544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,10 +1194,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94210048"/>
+        <c:crossAx val="170763008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1204,7 +1225,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1333,11 +1354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121635328"/>
-        <c:axId val="121489088"/>
+        <c:axId val="170692992"/>
+        <c:axId val="170694528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121635328"/>
+        <c:axId val="170692992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121489088"/>
+        <c:crossAx val="170694528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1355,7 +1376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121489088"/>
+        <c:axId val="170694528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,13 +1387,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121635328"/>
+        <c:crossAx val="170692992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2028,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M15"/>
+    <sheetView topLeftCell="D11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,14 +2075,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2099,22 +2121,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -2593,7 +2615,7 @@
         <v>67</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="R30" s="46" t="s">
         <v>69</v>
@@ -2671,10 +2693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U35"/>
+  <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,14 +2720,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2744,22 +2766,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -3070,7 +3092,7 @@
       </c>
       <c r="H21" s="42"/>
       <c r="J21" s="25" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>79</v>
@@ -3098,7 +3120,7 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="53" t="s">
         <v>72</v>
       </c>
       <c r="H22" s="42">
@@ -3165,11 +3187,11 @@
       </c>
       <c r="P24">
         <f>P25</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q24">
-        <f>P24-R35</f>
-        <v>44</v>
+        <f>P24-R36</f>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.25">
@@ -3191,11 +3213,11 @@
       <c r="H25" s="42"/>
       <c r="P25">
         <f>P26</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q25">
-        <f>Q26+(R35-Q35)</f>
-        <v>52</v>
+        <f>Q26+(R36-Q36)</f>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.25">
@@ -3214,17 +3236,17 @@
       <c r="G26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="57"/>
+      <c r="H26" s="55"/>
       <c r="P26">
         <f>F28</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q26">
         <f>P26-17</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R26">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S26">
         <v>26</v>
@@ -3237,22 +3259,22 @@
       </c>
     </row>
     <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="52">
         <v>3</v>
       </c>
-      <c r="F27" s="54">
-        <v>4</v>
-      </c>
-      <c r="G27" s="55" t="s">
+      <c r="F27" s="52">
+        <v>4</v>
+      </c>
+      <c r="G27" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="54">
         <v>0.5</v>
       </c>
       <c r="P27" s="32" t="s">
@@ -3279,8 +3301,8 @@
         <v>15</v>
       </c>
       <c r="F28" s="4">
-        <f>SUM(F14:F26)</f>
-        <v>65</v>
+        <f>SUM(F14:F27)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3289,12 +3311,14 @@
         <v>67</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="R30" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="S30" s="41"/>
+      <c r="S30" s="41" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P31" s="37">
@@ -3304,7 +3328,11 @@
         <v>8</v>
       </c>
       <c r="R31" s="39">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="S31">
+        <f>R31-SUM('Iteration-1'!M14:M15)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3315,42 +3343,101 @@
         <v>4</v>
       </c>
       <c r="R32" s="39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="S32">
+        <f>R32-SUM('Iteration-1'!M16:M18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="16:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P33" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q33" s="39">
+        <v>6</v>
+      </c>
+      <c r="R33" s="39">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <f>R33</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="16:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="39">
+        <v>12</v>
+      </c>
+      <c r="R34" s="39">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <f>R34</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="16:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P35" s="38">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="39">
+        <v>4</v>
+      </c>
+      <c r="R35" s="39">
         <v>2</v>
       </c>
-      <c r="R33" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="38">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="39">
-        <v>3</v>
-      </c>
-      <c r="R34" s="39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P35" s="36" t="s">
+      <c r="S35">
+        <f>R35</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P36" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="Q35">
-        <f>SUM(Q31:Q34)</f>
-        <v>17</v>
-      </c>
-      <c r="R35">
-        <f>SUM(R31:R34)</f>
-        <v>21</v>
+      <c r="Q36">
+        <f>SUM(Q31:Q35)</f>
+        <v>34</v>
+      </c>
+      <c r="R36">
+        <f>SUM(R31:R35)</f>
+        <v>31</v>
+      </c>
+      <c r="S36">
+        <f>SUM(S31:S35)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P38" s="58">
+        <v>69</v>
+      </c>
+      <c r="Q38">
+        <f>P38-'Iteration-1'!Q35</f>
+        <v>52</v>
+      </c>
+      <c r="R38">
+        <f>Q38+('Iteration-1'!R35-'Iteration-1'!Q35)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <f>R38</f>
+        <v>56</v>
+      </c>
+      <c r="Q39">
+        <f>P39-15</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3394,14 +3481,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3440,22 +3527,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="49"/>
       <c r="J12" s="20" t="s">
         <v>17</v>

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration-1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Iteration-3" sheetId="3" r:id="rId3"/>
     <sheet name="Iteration-4" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration-5" sheetId="5" r:id="rId5"/>
+    <sheet name="Iteration 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -810,14 +811,14 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -971,11 +972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170550016"/>
-        <c:axId val="170551552"/>
+        <c:axId val="178610944"/>
+        <c:axId val="178612480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170550016"/>
+        <c:axId val="178610944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170551552"/>
+        <c:crossAx val="178612480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -993,7 +994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170551552"/>
+        <c:axId val="178612480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,14 +1005,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170550016"/>
+        <c:crossAx val="178610944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1161,11 +1161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170763008"/>
-        <c:axId val="170764544"/>
+        <c:axId val="178172672"/>
+        <c:axId val="178174208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170763008"/>
+        <c:axId val="178172672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170764544"/>
+        <c:crossAx val="178174208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1183,7 +1183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170764544"/>
+        <c:axId val="178174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170763008"/>
+        <c:crossAx val="178172672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,11 +1354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170692992"/>
-        <c:axId val="170694528"/>
+        <c:axId val="178096000"/>
+        <c:axId val="178097536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170692992"/>
+        <c:axId val="178096000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170694528"/>
+        <c:crossAx val="178097536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1376,7 +1376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170694528"/>
+        <c:axId val="178097536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,14 +1387,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170692992"/>
+        <c:crossAx val="178096000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2075,14 +2074,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2121,22 +2120,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -2695,7 +2694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="I25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
@@ -2720,14 +2719,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2766,22 +2765,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -3413,7 +3412,7 @@
       </c>
     </row>
     <row r="38" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P38" s="58">
+      <c r="P38" s="56">
         <v>69</v>
       </c>
       <c r="Q38">
@@ -3481,14 +3480,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3527,22 +3526,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="49"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -4092,4 +4091,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration-1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,13 @@
     <sheet name="Iteration-3" sheetId="3" r:id="rId3"/>
     <sheet name="Iteration-4" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration-5" sheetId="5" r:id="rId5"/>
-    <sheet name="Iteration 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="97">
   <si>
     <t>STORY</t>
   </si>
@@ -307,6 +306,9 @@
   </si>
   <si>
     <t>#1.6</t>
+  </si>
+  <si>
+    <t>New Spring Backlog</t>
   </si>
 </sst>
 </file>
@@ -414,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -709,12 +711,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -796,21 +844,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -818,6 +857,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -972,11 +1032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178610944"/>
-        <c:axId val="178612480"/>
+        <c:axId val="170353408"/>
+        <c:axId val="170354944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178610944"/>
+        <c:axId val="170353408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,7 +1046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178612480"/>
+        <c:crossAx val="170354944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -994,7 +1054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178612480"/>
+        <c:axId val="170354944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,13 +1065,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178610944"/>
+        <c:crossAx val="170353408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1094,13 +1155,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>26</c:v>
@@ -1133,15 +1194,15 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-2'!$P$38:$P$40</c:f>
+              <c:f>'Iteration-2'!$N$38:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>41</c:v>
@@ -1161,11 +1222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178172672"/>
-        <c:axId val="178174208"/>
+        <c:axId val="170566400"/>
+        <c:axId val="170567936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178172672"/>
+        <c:axId val="170566400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178174208"/>
+        <c:crossAx val="170567936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1183,7 +1244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178174208"/>
+        <c:axId val="170567936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178172672"/>
+        <c:crossAx val="170566400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,11 +1415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178096000"/>
-        <c:axId val="178097536"/>
+        <c:axId val="170635648"/>
+        <c:axId val="170637184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178096000"/>
+        <c:axId val="170635648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178097536"/>
+        <c:crossAx val="170637184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1376,7 +1437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178097536"/>
+        <c:axId val="170637184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,13 +1448,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178096000"/>
+        <c:crossAx val="170635648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2049,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,14 +2136,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2120,22 +2182,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -2694,14 +2756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="I25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -2710,23 +2772,24 @@
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
     <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2761,27 +2824,27 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="62"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="48"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="62"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -3119,7 +3182,7 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="52" t="s">
         <v>72</v>
       </c>
       <c r="H22" s="42">
@@ -3142,7 +3205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="23" t="s">
         <v>13</v>
       </c>
@@ -3165,7 +3228,7 @@
       <c r="M23" s="19"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="23" t="s">
         <v>14</v>
       </c>
@@ -3184,13 +3247,19 @@
       <c r="H24" s="42">
         <v>1</v>
       </c>
+      <c r="L24" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="64">
+        <v>4</v>
+      </c>
       <c r="P24">
         <f>P25</f>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q24">
         <f>P24-R36</f>
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.25">
@@ -3212,15 +3281,15 @@
       <c r="H25" s="42"/>
       <c r="P25">
         <f>P26</f>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q25">
         <f>Q26+(R36-Q36)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3235,17 +3304,17 @@
       <c r="G26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="55"/>
+      <c r="H26" s="56"/>
       <c r="P26">
-        <f>F28</f>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q26">
         <f>P26-17</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R26">
-        <v>41</v>
+        <f>Q26-M22+4</f>
+        <v>37</v>
       </c>
       <c r="S26">
         <v>26</v>
@@ -3258,22 +3327,22 @@
       </c>
     </row>
     <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="51">
         <v>3</v>
       </c>
-      <c r="F27" s="52">
-        <v>4</v>
-      </c>
-      <c r="G27" s="53" t="s">
+      <c r="F27" s="51">
+        <v>4</v>
+      </c>
+      <c r="G27" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="57">
         <v>0.5</v>
       </c>
       <c r="P27" s="32" t="s">
@@ -3303,6 +3372,8 @@
         <f>SUM(F14:F27)</f>
         <v>69</v>
       </c>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3349,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="16:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P33" s="38">
         <v>3</v>
       </c>
@@ -3364,7 +3435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="16:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P34" s="38">
         <v>9</v>
       </c>
@@ -3379,7 +3450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="16:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P35" s="38">
         <v>14</v>
       </c>
@@ -3394,7 +3465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:19" x14ac:dyDescent="0.25">
       <c r="P36" s="36" t="s">
         <v>70</v>
       </c>
@@ -3411,31 +3482,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P38" s="56">
-        <v>69</v>
-      </c>
-      <c r="Q38">
-        <f>P38-'Iteration-1'!Q35</f>
+    <row r="38" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>65</v>
+      </c>
+      <c r="O38">
+        <v>65</v>
+      </c>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+    </row>
+    <row r="39" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N39">
         <v>52</v>
       </c>
-      <c r="R38">
-        <f>Q38+('Iteration-1'!R35-'Iteration-1'!Q35)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P39">
-        <f>R38</f>
-        <v>56</v>
-      </c>
-      <c r="Q39">
-        <f>P39-15</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P40">
+      <c r="O39">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f>N39-S36+M24</f>
         <v>41</v>
       </c>
     </row>
@@ -3443,7 +3510,7 @@
   <mergeCells count="3">
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J11:N11"/>
-    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3456,7 +3523,7 @@
   <dimension ref="B2:U35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,14 +3547,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3526,23 +3593,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="49"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -4091,16 +4158,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -853,12 +853,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,17 +861,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1032,11 +1032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170353408"/>
-        <c:axId val="170354944"/>
+        <c:axId val="172974464"/>
+        <c:axId val="172976000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170353408"/>
+        <c:axId val="172974464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170354944"/>
+        <c:crossAx val="172976000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170354944"/>
+        <c:axId val="172976000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,14 +1065,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170353408"/>
+        <c:crossAx val="172974464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1222,11 +1221,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170566400"/>
-        <c:axId val="170567936"/>
+        <c:axId val="172532096"/>
+        <c:axId val="172533632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170566400"/>
+        <c:axId val="172532096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170567936"/>
+        <c:crossAx val="172533632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1244,7 +1243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170567936"/>
+        <c:axId val="172533632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,7 +1254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170566400"/>
+        <c:crossAx val="172532096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1415,11 +1414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170635648"/>
-        <c:axId val="170637184"/>
+        <c:axId val="172594688"/>
+        <c:axId val="172596224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170635648"/>
+        <c:axId val="172594688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170637184"/>
+        <c:crossAx val="172596224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1437,7 +1436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170637184"/>
+        <c:axId val="172596224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,14 +1447,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170635648"/>
+        <c:crossAx val="172594688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2136,14 +2134,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2182,22 +2180,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -2757,7 +2755,7 @@
   <dimension ref="B2:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,14 +2780,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2828,23 +2826,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="64"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -3247,10 +3245,10 @@
       <c r="H24" s="42">
         <v>1</v>
       </c>
-      <c r="L24" s="63" t="s">
+      <c r="L24" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="M24" s="64">
+      <c r="M24" s="59">
         <v>4</v>
       </c>
       <c r="P24">
@@ -3304,7 +3302,7 @@
       <c r="G26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="56"/>
+      <c r="H26" s="54"/>
       <c r="P26">
         <v>65</v>
       </c>
@@ -3339,10 +3337,10 @@
       <c r="F27" s="51">
         <v>4</v>
       </c>
-      <c r="G27" s="59" t="s">
+      <c r="G27" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="55">
         <v>0.5</v>
       </c>
       <c r="P27" s="32" t="s">
@@ -3372,8 +3370,8 @@
         <f>SUM(F14:F27)</f>
         <v>69</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3547,14 +3545,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3593,22 +3591,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -903,7 +903,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1032,11 +1032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172974464"/>
-        <c:axId val="172976000"/>
+        <c:axId val="95974912"/>
+        <c:axId val="82761920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172974464"/>
+        <c:axId val="95974912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172976000"/>
+        <c:crossAx val="82761920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172976000"/>
+        <c:axId val="82761920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172974464"/>
+        <c:crossAx val="95974912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,7 +1089,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1221,11 +1221,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172532096"/>
-        <c:axId val="172533632"/>
+        <c:axId val="85685760"/>
+        <c:axId val="95535104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172532096"/>
+        <c:axId val="85685760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172533632"/>
+        <c:crossAx val="95535104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1243,7 +1243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172533632"/>
+        <c:axId val="95535104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172532096"/>
+        <c:crossAx val="85685760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,7 +1285,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1414,11 +1414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172594688"/>
-        <c:axId val="172596224"/>
+        <c:axId val="95688704"/>
+        <c:axId val="95536832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172594688"/>
+        <c:axId val="95688704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172596224"/>
+        <c:crossAx val="95536832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1436,7 +1436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172596224"/>
+        <c:axId val="95536832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172594688"/>
+        <c:crossAx val="95688704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2754,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,11 +2976,11 @@
       <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="43" t="s">
-        <v>72</v>
+      <c r="G16" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="H16" s="42">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>75</v>

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration-1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="108">
   <si>
     <t>STORY</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Product Backlog Items</t>
   </si>
   <si>
-    <t>Estimated Completion Time (hrs)</t>
-  </si>
-  <si>
     <t>Actual Time Spend (hrs)</t>
   </si>
   <si>
@@ -309,6 +306,42 @@
   </si>
   <si>
     <t>New Spring Backlog</t>
+  </si>
+  <si>
+    <t>Room No generated automatically</t>
+  </si>
+  <si>
+    <t>GamzeKüçükçolak</t>
+  </si>
+  <si>
+    <t>Display students according to the enrolled rooms</t>
+  </si>
+  <si>
+    <t>View student information on profile tab</t>
+  </si>
+  <si>
+    <t>#7.5</t>
+  </si>
+  <si>
+    <t>#3.3</t>
+  </si>
+  <si>
+    <t>#14.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design GUI (chart data type) </t>
+  </si>
+  <si>
+    <t>#14.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design new GUI (show dorm capacity) </t>
+  </si>
+  <si>
+    <t>#14.4</t>
+  </si>
+  <si>
+    <t>Check the occupancy of rooms in DB at a given time interval</t>
   </si>
 </sst>
 </file>
@@ -1032,11 +1065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95974912"/>
-        <c:axId val="82761920"/>
+        <c:axId val="120157696"/>
+        <c:axId val="91412672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95974912"/>
+        <c:axId val="120157696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82761920"/>
+        <c:crossAx val="91412672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82761920"/>
+        <c:axId val="91412672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95974912"/>
+        <c:crossAx val="120157696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1221,11 +1254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85685760"/>
-        <c:axId val="95535104"/>
+        <c:axId val="95192576"/>
+        <c:axId val="119717888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85685760"/>
+        <c:axId val="95192576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95535104"/>
+        <c:crossAx val="119717888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1243,7 +1276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95535104"/>
+        <c:axId val="119717888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85685760"/>
+        <c:crossAx val="95192576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,7 +1378,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-1'!$P$26:$U$26</c:f>
+              <c:f>'Iteration-2'!$P$26:$U$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1356,7 +1389,7 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>26</c:v>
@@ -1389,15 +1422,18 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-1'!$P$25:$Q$25</c:f>
+              <c:f>'Iteration-2'!$N$38:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,11 +1450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95688704"/>
-        <c:axId val="95536832"/>
+        <c:axId val="119871488"/>
+        <c:axId val="119719616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95688704"/>
+        <c:axId val="119871488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95536832"/>
+        <c:crossAx val="119719616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1436,7 +1472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95536832"/>
+        <c:axId val="119719616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,13 +1483,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95688704"/>
+        <c:crossAx val="119871488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1706,38 +1749,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -1815,6 +1826,38 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>721178</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2231,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>14</v>
@@ -2263,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="42">
         <v>0.7</v>
@@ -2674,10 +2717,10 @@
         <v>67</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S30" s="41"/>
     </row>
@@ -2727,7 +2770,7 @@
     </row>
     <row r="35" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P35" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q35">
         <f>SUM(Q31:Q34)</f>
@@ -2754,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,13 +2920,13 @@
         <v>2</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>23</v>
@@ -2915,10 +2958,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>31</v>
@@ -2948,10 +2991,10 @@
       </c>
       <c r="H15" s="42"/>
       <c r="J15" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
@@ -2976,17 +3019,17 @@
       <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>66</v>
+      <c r="G16" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="H16" s="42">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>24</v>
@@ -3016,13 +3059,13 @@
       </c>
       <c r="H17" s="42"/>
       <c r="J17" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="M17" s="14">
         <v>2</v>
@@ -3051,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>22</v>
@@ -3084,10 +3127,10 @@
       </c>
       <c r="H19" s="42"/>
       <c r="J19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>23</v>
@@ -3119,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>25</v>
@@ -3152,10 +3195,10 @@
       </c>
       <c r="H21" s="42"/>
       <c r="J21" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="26" t="s">
         <v>22</v>
@@ -3181,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22" s="42">
         <v>0.4</v>
@@ -3246,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M24" s="59">
         <v>4</v>
@@ -3326,10 +3369,10 @@
     </row>
     <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="50" t="s">
         <v>82</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>83</v>
       </c>
       <c r="E27" s="51">
         <v>3</v>
@@ -3338,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H27" s="55">
         <v>0.5</v>
@@ -3379,13 +3422,13 @@
         <v>67</v>
       </c>
       <c r="Q30" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="R30" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" s="41" t="s">
         <v>93</v>
-      </c>
-      <c r="R30" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="S30" s="41" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3465,7 +3508,7 @@
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.25">
       <c r="P36" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q36">
         <f>SUM(Q31:Q35)</f>
@@ -3518,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U35"/>
+  <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,7 +3578,7 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
@@ -3642,15 +3685,19 @@
         <v>2</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="L13" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>66</v>
@@ -3675,10 +3722,14 @@
       <c r="H14" s="42">
         <v>1</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>24</v>
+      <c r="J14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="M14" s="2">
         <v>2</v>
@@ -3704,13 +3755,17 @@
         <v>4</v>
       </c>
       <c r="H15" s="42"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="11"/>
+      <c r="J15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="35" t="s">
         <v>66</v>
@@ -3729,14 +3784,18 @@
       <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="43" t="s">
-        <v>72</v>
+      <c r="G16" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="H16" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L16" s="1" t="s">
         <v>22</v>
       </c>
@@ -3764,13 +3823,17 @@
         <v>4</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="L17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M17" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" s="35" t="s">
         <v>66</v>
@@ -3795,10 +3858,14 @@
       <c r="H18" s="42">
         <v>1</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="L18" s="13" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="M18" s="14">
         <v>2</v>
@@ -3807,7 +3874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="23" t="s">
         <v>9</v>
       </c>
@@ -3824,17 +3891,17 @@
         <v>4</v>
       </c>
       <c r="H19" s="42"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="47" t="s">
+      <c r="J19" s="23"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="23" t="s">
         <v>10</v>
       </c>
@@ -3853,16 +3920,21 @@
       <c r="H20" s="42">
         <v>1</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="6">
-        <f>SUM(M13:M19)</f>
-        <v>12</v>
-      </c>
-      <c r="N20" s="17"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20">
+        <v>65</v>
+      </c>
+      <c r="Q20">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="23" t="s">
@@ -3881,6 +3953,16 @@
         <v>4</v>
       </c>
       <c r="H21" s="42"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="6">
+        <f>SUM(M13:M20)</f>
+        <v>9</v>
+      </c>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
@@ -3895,15 +3977,19 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="42"/>
+      <c r="G22" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="42">
+        <v>0.4</v>
+      </c>
       <c r="P22">
+        <f>P23</f>
         <v>65</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <f>P22-R34</f>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.25">
@@ -3927,7 +4013,14 @@
       <c r="K23" s="17"/>
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="17"/>
+      <c r="P23">
+        <f>P24</f>
+        <v>65</v>
+      </c>
+      <c r="Q23">
+        <f>Q24+(R34-Q34)</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" s="23" t="s">
@@ -3949,12 +4042,24 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <f>P25</f>
         <v>65</v>
       </c>
       <c r="Q24">
-        <f>P24-R35</f>
-        <v>44</v>
+        <f>P24-17</f>
+        <v>48</v>
+      </c>
+      <c r="R24">
+        <f>Q24-M21+4</f>
+        <v>43</v>
+      </c>
+      <c r="S24">
+        <v>26</v>
+      </c>
+      <c r="T24">
+        <v>13</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.25">
@@ -3970,157 +4075,207 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="42"/>
-      <c r="P25">
-        <f>P26</f>
-        <v>65</v>
-      </c>
-      <c r="Q25">
-        <f>Q26+(R35-Q35)</f>
-        <v>52</v>
+      <c r="G25" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="42">
+        <v>1</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="2">
         <v>3</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="2">
         <v>10</v>
       </c>
-      <c r="G26" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="42">
+      <c r="G26" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="42"/>
+    </row>
+    <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="30">
+        <v>3</v>
+      </c>
+      <c r="F27" s="30">
+        <v>4</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="42">
         <v>0.2</v>
       </c>
-      <c r="P26">
-        <f>F27</f>
+    </row>
+    <row r="28" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="17"/>
+      <c r="D28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="4">
+        <f>SUM(F14:F27)</f>
+        <v>69</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="P28" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P29" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="38">
+        <v>8</v>
+      </c>
+      <c r="R29" s="39">
+        <v>13</v>
+      </c>
+      <c r="S29">
+        <f>R29-SUM('Iteration-1'!M12:M13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>4</v>
+      </c>
+      <c r="R30" s="39">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <f>R30-SUM('Iteration-1'!M14:M16)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="38">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="39">
+        <v>6</v>
+      </c>
+      <c r="R31" s="39">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <f>R31</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="38">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>12</v>
+      </c>
+      <c r="R32" s="39">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <f>R32</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="38">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>4</v>
+      </c>
+      <c r="R33" s="39">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <f>R33</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="P34" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34">
+        <f>SUM(Q29:Q33)</f>
+        <v>34</v>
+      </c>
+      <c r="R34">
+        <f>SUM(R29:R33)</f>
+        <v>31</v>
+      </c>
+      <c r="S34">
+        <f>SUM(S29:S33)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N36">
         <v>65</v>
       </c>
-      <c r="Q26">
-        <f>P26-17</f>
-        <v>48</v>
-      </c>
-      <c r="R26">
-        <v>39</v>
-      </c>
-      <c r="S26">
-        <v>26</v>
-      </c>
-      <c r="T26">
-        <v>13</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C27" s="17"/>
-      <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="4">
-        <f>SUM(F14:F26)</f>
+      <c r="O36">
         <v>65</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="P27" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="R27" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="T27" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="U27" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P30" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q30" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="R30" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="S30" s="41"/>
-    </row>
-    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P31" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="38">
-        <v>8</v>
-      </c>
-      <c r="R31" s="39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P32" s="40">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="39">
-        <v>4</v>
-      </c>
-      <c r="R32" s="39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P33" s="38">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="39">
-        <v>2</v>
-      </c>
-      <c r="R33" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="38">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="39">
-        <v>3</v>
-      </c>
-      <c r="R34" s="39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P35" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q35">
-        <f>SUM(Q31:Q34)</f>
-        <v>17</v>
-      </c>
-      <c r="R35">
-        <f>SUM(R31:R34)</f>
-        <v>21</v>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+    </row>
+    <row r="37" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>52</v>
+      </c>
+      <c r="O37">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <f>N37-S34+M22</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4130,7 +4285,8 @@
     <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="101">
   <si>
     <t>STORY</t>
   </si>
@@ -224,6 +224,9 @@
     <t>Product Backlog Items</t>
   </si>
   <si>
+    <t>Estimated Completion Time (hrs)</t>
+  </si>
+  <si>
     <t>Actual Time Spend (hrs)</t>
   </si>
   <si>
@@ -308,40 +311,16 @@
     <t>New Spring Backlog</t>
   </si>
   <si>
-    <t>Room No generated automatically</t>
-  </si>
-  <si>
-    <t>GamzeKüçükçolak</t>
-  </si>
-  <si>
-    <t>Display students according to the enrolled rooms</t>
-  </si>
-  <si>
-    <t>View student information on profile tab</t>
-  </si>
-  <si>
-    <t>#7.5</t>
-  </si>
-  <si>
-    <t>#3.3</t>
-  </si>
-  <si>
-    <t>#14.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design GUI (chart data type) </t>
-  </si>
-  <si>
-    <t>#14.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design new GUI (show dorm capacity) </t>
-  </si>
-  <si>
-    <t>#14.4</t>
-  </si>
-  <si>
-    <t>Check the occupancy of rooms in DB at a given time interval</t>
+    <t>Creating lost item interface</t>
+  </si>
+  <si>
+    <t>Show gender distribution with a chart</t>
+  </si>
+  <si>
+    <t>Show dorm capacity with a chart</t>
+  </si>
+  <si>
+    <t>Adding and removing lost item</t>
   </si>
 </sst>
 </file>
@@ -795,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -874,9 +853,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -936,7 +912,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1065,11 +1041,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120157696"/>
-        <c:axId val="91412672"/>
+        <c:axId val="215873792"/>
+        <c:axId val="215744512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120157696"/>
+        <c:axId val="215873792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91412672"/>
+        <c:crossAx val="215744512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1087,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91412672"/>
+        <c:axId val="215744512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,13 +1074,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120157696"/>
+        <c:crossAx val="215873792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1122,7 +1099,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1254,11 +1231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95192576"/>
-        <c:axId val="119717888"/>
+        <c:axId val="216287488"/>
+        <c:axId val="216289280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95192576"/>
+        <c:axId val="216287488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119717888"/>
+        <c:crossAx val="216289280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1276,7 +1253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119717888"/>
+        <c:axId val="216289280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95192576"/>
+        <c:crossAx val="216287488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1318,7 +1295,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1422,7 +1399,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-2'!$N$38:$N$40</c:f>
+              <c:f>'Iteration-3'!$P$37:$P$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1450,11 +1427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119871488"/>
-        <c:axId val="119719616"/>
+        <c:axId val="216401792"/>
+        <c:axId val="216403328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119871488"/>
+        <c:axId val="216401792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119719616"/>
+        <c:crossAx val="216403328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1472,7 +1449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119719616"/>
+        <c:axId val="216403328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,16 +1460,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119871488"/>
+        <c:crossAx val="216401792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1749,6 +1720,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -1826,38 +1829,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>721178</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133010</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2152,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2177,14 +2148,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2223,22 +2194,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -2274,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>14</v>
@@ -2306,7 +2277,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="42">
         <v>0.7</v>
@@ -2717,10 +2688,10 @@
         <v>67</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S30" s="41"/>
     </row>
@@ -2770,7 +2741,7 @@
     </row>
     <row r="35" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P35" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q35">
         <f>SUM(Q31:Q34)</f>
@@ -2797,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="I12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,14 +2794,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2869,23 +2840,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="64"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -2920,13 +2891,13 @@
         <v>2</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>23</v>
@@ -2958,10 +2929,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>31</v>
@@ -2991,10 +2962,10 @@
       </c>
       <c r="H15" s="42"/>
       <c r="J15" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
@@ -3019,17 +2990,17 @@
       <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="52" t="s">
-        <v>71</v>
+      <c r="G16" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="H16" s="42">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>24</v>
@@ -3059,13 +3030,13 @@
       </c>
       <c r="H17" s="42"/>
       <c r="J17" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" s="14">
         <v>2</v>
@@ -3094,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>22</v>
@@ -3127,10 +3098,10 @@
       </c>
       <c r="H19" s="42"/>
       <c r="J19" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>23</v>
@@ -3162,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>25</v>
@@ -3195,10 +3166,10 @@
       </c>
       <c r="H21" s="42"/>
       <c r="J21" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L21" s="26" t="s">
         <v>22</v>
@@ -3223,8 +3194,8 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="52" t="s">
-        <v>71</v>
+      <c r="G22" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="H22" s="42">
         <v>0.4</v>
@@ -3288,10 +3259,10 @@
       <c r="H24" s="42">
         <v>1</v>
       </c>
-      <c r="L24" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" s="59">
+      <c r="L24" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="58">
         <v>4</v>
       </c>
       <c r="P24">
@@ -3345,7 +3316,7 @@
       <c r="G26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="54"/>
+      <c r="H26" s="53"/>
       <c r="P26">
         <v>65</v>
       </c>
@@ -3368,22 +3339,22 @@
       </c>
     </row>
     <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="50" t="s">
+      <c r="C27" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="51">
+      <c r="D27" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="50">
         <v>3</v>
       </c>
-      <c r="F27" s="51">
-        <v>4</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="55">
+      <c r="F27" s="50">
+        <v>4</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="54">
         <v>0.5</v>
       </c>
       <c r="P27" s="32" t="s">
@@ -3413,8 +3384,8 @@
         <f>SUM(F14:F27)</f>
         <v>69</v>
       </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,13 +3393,13 @@
         <v>67</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S30" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3508,7 +3479,7 @@
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.25">
       <c r="P36" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q36">
         <f>SUM(Q31:Q35)</f>
@@ -3530,8 +3501,8 @@
       <c r="O38">
         <v>65</v>
       </c>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
     </row>
     <row r="39" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N39">
@@ -3561,10 +3532,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U38"/>
+  <dimension ref="B2:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3549,7 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
@@ -3588,14 +3559,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3634,23 +3605,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="48"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -3685,19 +3656,17 @@
         <v>2</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>100</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J13" s="23"/>
       <c r="K13" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>66</v>
@@ -3722,14 +3691,12 @@
       <c r="H14" s="42">
         <v>1</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>101</v>
-      </c>
+      <c r="J14" s="23"/>
       <c r="K14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M14" s="2">
         <v>2</v>
@@ -3755,17 +3722,15 @@
         <v>4</v>
       </c>
       <c r="H15" s="42"/>
-      <c r="J15" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="J15" s="24"/>
       <c r="K15" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="35" t="s">
         <v>66</v>
@@ -3790,11 +3755,9 @@
       <c r="H16" s="42">
         <v>1</v>
       </c>
-      <c r="J16" s="24" t="s">
-        <v>102</v>
-      </c>
+      <c r="J16" s="24"/>
       <c r="K16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>22</v>
@@ -3823,17 +3786,12 @@
         <v>4</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="J17" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="J17" s="24"/>
       <c r="L17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M17" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" s="35" t="s">
         <v>66</v>
@@ -3858,14 +3816,10 @@
       <c r="H18" s="42">
         <v>1</v>
       </c>
-      <c r="J18" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="13" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M18" s="14">
         <v>2</v>
@@ -3874,7 +3828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="23" t="s">
         <v>9</v>
       </c>
@@ -3891,17 +3845,17 @@
         <v>4</v>
       </c>
       <c r="H19" s="42"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="35" t="s">
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="23" t="s">
         <v>10</v>
       </c>
@@ -3920,21 +3874,16 @@
       <c r="H20" s="42">
         <v>1</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20">
-        <v>65</v>
-      </c>
-      <c r="Q20">
-        <v>44</v>
-      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="6">
+        <f>SUM(M13:M19)</f>
+        <v>12</v>
+      </c>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="23" t="s">
@@ -3953,16 +3902,6 @@
         <v>4</v>
       </c>
       <c r="H21" s="42"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="6">
-        <f>SUM(M13:M20)</f>
-        <v>9</v>
-      </c>
-      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
@@ -3977,19 +3916,17 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="52" t="s">
-        <v>71</v>
+      <c r="G22" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="H22" s="42">
         <v>0.4</v>
       </c>
       <c r="P22">
-        <f>P23</f>
         <v>65</v>
       </c>
       <c r="Q22">
-        <f>P22-R34</f>
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.25">
@@ -4013,14 +3950,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
-      <c r="P23">
-        <f>P24</f>
-        <v>65</v>
-      </c>
-      <c r="Q23">
-        <f>Q24+(R34-Q34)</f>
-        <v>45</v>
-      </c>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" s="23" t="s">
@@ -4042,24 +3972,12 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>65</v>
+        <f>P25</f>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <f>P24-17</f>
-        <v>48</v>
-      </c>
-      <c r="R24">
-        <f>Q24-M21+4</f>
-        <v>43</v>
-      </c>
-      <c r="S24">
-        <v>26</v>
-      </c>
-      <c r="T24">
-        <v>13</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
+        <f>P24-R35</f>
+        <v>-17</v>
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.25">
@@ -4075,36 +3993,24 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="42">
-        <v>1</v>
-      </c>
-      <c r="P25" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q25" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="R25" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="S25" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="T25" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="P25">
+        <f>P26</f>
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <f>Q26+(R35-Q35)</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="2">
@@ -4116,30 +4022,67 @@
       <c r="G26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="42"/>
+      <c r="H26" s="53"/>
+      <c r="P26">
+        <f>F27</f>
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <f>P26-17</f>
+        <v>-13</v>
+      </c>
+      <c r="R26">
+        <v>37</v>
+      </c>
+      <c r="S26">
+        <v>26</v>
+      </c>
+      <c r="T26">
+        <v>13</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="50" t="s">
+      <c r="C27" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="30">
+      <c r="D27" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="50">
         <v>3</v>
       </c>
-      <c r="F27" s="30">
-        <v>4</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="42">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="17"/>
+      <c r="F27" s="50">
+        <v>4</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="P27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>15</v>
       </c>
@@ -4147,146 +4090,102 @@
         <f>SUM(F14:F27)</f>
         <v>69</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="P28" s="44" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+    </row>
+    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="Q28" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="R28" s="46" t="s">
+      <c r="Q30" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="S28" s="41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P29" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="38">
+      <c r="R30" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" s="41"/>
+    </row>
+    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="38">
         <v>8</v>
       </c>
-      <c r="R29" s="39">
-        <v>13</v>
-      </c>
-      <c r="S29">
-        <f>R29-SUM('Iteration-1'!M12:M13)</f>
+      <c r="R31" s="39">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P30" s="40">
+    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="40">
         <v>7</v>
       </c>
-      <c r="Q30" s="39">
-        <v>4</v>
-      </c>
-      <c r="R30" s="39">
-        <v>8</v>
-      </c>
-      <c r="S30">
-        <f>R30-SUM('Iteration-1'!M14:M16)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P31" s="38">
+      <c r="Q32" s="39">
+        <v>4</v>
+      </c>
+      <c r="R32" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>2</v>
+      </c>
+      <c r="R33" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="39">
         <v>3</v>
       </c>
-      <c r="Q31" s="39">
-        <v>6</v>
-      </c>
-      <c r="R31" s="39">
-        <v>4</v>
-      </c>
-      <c r="S31">
-        <f>R31</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P32" s="38">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="39">
-        <v>12</v>
-      </c>
-      <c r="R32" s="39">
-        <v>4</v>
-      </c>
-      <c r="S32">
-        <f>R32</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P33" s="38">
-        <v>14</v>
-      </c>
-      <c r="Q33" s="39">
-        <v>4</v>
-      </c>
-      <c r="R33" s="39">
-        <v>2</v>
-      </c>
-      <c r="S33">
-        <f>R33</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="P34" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q34">
-        <f>SUM(Q29:Q33)</f>
-        <v>34</v>
-      </c>
-      <c r="R34">
-        <f>SUM(R29:R33)</f>
-        <v>31</v>
-      </c>
-      <c r="S34">
-        <f>SUM(S29:S33)</f>
+      <c r="R34" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P35" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35">
+        <f>SUM(Q31:Q34)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N36">
+      <c r="R35">
+        <f>SUM(R31:R34)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P37" s="52">
         <v>65</v>
       </c>
-      <c r="O36">
-        <v>65</v>
-      </c>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-    </row>
-    <row r="37" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N37">
+    </row>
+    <row r="38" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P38" s="52">
         <v>52</v>
       </c>
-      <c r="O37">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N38">
-        <f>N37-S34+M22</f>
-        <v>35</v>
+    </row>
+    <row r="39" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P39" s="52">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J11:N11"/>
-    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="103">
   <si>
     <t>STORY</t>
   </si>
@@ -311,9 +311,6 @@
     <t>New Spring Backlog</t>
   </si>
   <si>
-    <t>Creating lost item interface</t>
-  </si>
-  <si>
     <t>Show gender distribution with a chart</t>
   </si>
   <si>
@@ -321,6 +318,15 @@
   </si>
   <si>
     <t>Adding and removing lost item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter students </t>
+  </si>
+  <si>
+    <t>Updated room types and numbers</t>
+  </si>
+  <si>
+    <t>Creating lost and damaged item GUI</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -769,12 +775,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -889,6 +906,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,11 +1059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215873792"/>
-        <c:axId val="215744512"/>
+        <c:axId val="200079616"/>
+        <c:axId val="199950336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215873792"/>
+        <c:axId val="200079616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215744512"/>
+        <c:crossAx val="199950336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1063,7 +1081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215744512"/>
+        <c:axId val="199950336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,14 +1092,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215873792"/>
+        <c:crossAx val="200079616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1231,11 +1248,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="216287488"/>
-        <c:axId val="216289280"/>
+        <c:axId val="200489216"/>
+        <c:axId val="200491008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216287488"/>
+        <c:axId val="200489216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216289280"/>
+        <c:crossAx val="200491008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1253,7 +1270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216289280"/>
+        <c:axId val="200491008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216287488"/>
+        <c:crossAx val="200489216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1277,7 +1294,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1427,11 +1443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="216401792"/>
-        <c:axId val="216403328"/>
+        <c:axId val="200607616"/>
+        <c:axId val="200609152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216401792"/>
+        <c:axId val="200607616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216403328"/>
+        <c:crossAx val="200609152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1449,7 +1465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216403328"/>
+        <c:axId val="200609152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,7 +1476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216401792"/>
+        <c:crossAx val="200607616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3534,8 +3550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,7 +3676,7 @@
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>23</v>
@@ -3693,7 +3709,7 @@
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>24</v>
@@ -3724,7 +3740,7 @@
       <c r="H15" s="42"/>
       <c r="J15" s="24"/>
       <c r="K15" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
@@ -3757,7 +3773,7 @@
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>22</v>
@@ -3787,8 +3803,11 @@
       </c>
       <c r="H17" s="42"/>
       <c r="J17" s="24"/>
+      <c r="K17" s="64" t="s">
+        <v>100</v>
+      </c>
       <c r="L17" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M17" s="15">
         <v>4</v>
@@ -3817,7 +3836,9 @@
         <v>1</v>
       </c>
       <c r="J18" s="24"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="L18" s="13" t="s">
         <v>77</v>
       </c>

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="120">
   <si>
     <t>STORY</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Product Backlog Items</t>
   </si>
   <si>
-    <t>Estimated Completion Time (hrs)</t>
-  </si>
-  <si>
     <t>Actual Time Spend (hrs)</t>
   </si>
   <si>
@@ -311,22 +308,76 @@
     <t>New Spring Backlog</t>
   </si>
   <si>
-    <t>Show gender distribution with a chart</t>
-  </si>
-  <si>
-    <t>Show dorm capacity with a chart</t>
-  </si>
-  <si>
-    <t>Adding and removing lost item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter students </t>
-  </si>
-  <si>
-    <t>Updated room types and numbers</t>
-  </si>
-  <si>
-    <t>Creating lost and damaged item GUI</t>
+    <t>Room No generated automatically</t>
+  </si>
+  <si>
+    <t>GamzeKüçükçolak</t>
+  </si>
+  <si>
+    <t>Display students according to the enrolled rooms</t>
+  </si>
+  <si>
+    <t>#7.5</t>
+  </si>
+  <si>
+    <t>#3.3</t>
+  </si>
+  <si>
+    <t>#14.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design GUI (chart data type) </t>
+  </si>
+  <si>
+    <t>#14.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design new GUI (show dorm capacity) </t>
+  </si>
+  <si>
+    <t>#14.4</t>
+  </si>
+  <si>
+    <t>Check the occupancy of rooms in DB at a given time interval</t>
+  </si>
+  <si>
+    <t>Filter Students according to name and surname</t>
+  </si>
+  <si>
+    <t>#9.2</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>Update students' information</t>
+  </si>
+  <si>
+    <t>Update dorms and rooms</t>
+  </si>
+  <si>
+    <t>Gamze Küçükçolak</t>
+  </si>
+  <si>
+    <t>Edit student information on the profile tab</t>
+  </si>
+  <si>
+    <t>View student information on the profile tab</t>
+  </si>
+  <si>
+    <t>#13 .1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#13.2 </t>
+  </si>
+  <si>
+    <t>Edit student information procedures in DB</t>
+  </si>
+  <si>
+    <t>Display female/male capacity of the dorms</t>
+  </si>
+  <si>
+    <t>Erdi Koç &amp; İsmetcan</t>
   </si>
 </sst>
 </file>
@@ -776,13 +827,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -791,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -870,6 +923,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -906,7 +962,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,7 +995,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1059,11 +1124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200079616"/>
-        <c:axId val="199950336"/>
+        <c:axId val="137521152"/>
+        <c:axId val="54270720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200079616"/>
+        <c:axId val="137521152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199950336"/>
+        <c:crossAx val="54270720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1081,7 +1146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199950336"/>
+        <c:axId val="54270720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,13 +1157,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200079616"/>
+        <c:crossAx val="137521152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1116,7 +1182,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1248,11 +1314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200489216"/>
-        <c:axId val="200491008"/>
+        <c:axId val="66702336"/>
+        <c:axId val="137658944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200489216"/>
+        <c:axId val="66702336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,7 +1328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200491008"/>
+        <c:crossAx val="137658944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1270,7 +1336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200491008"/>
+        <c:axId val="137658944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,7 +1347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200489216"/>
+        <c:crossAx val="66702336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,6 +1360,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1311,7 +1378,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1415,7 +1482,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-3'!$P$37:$P$39</c:f>
+              <c:f>'Iteration-2'!$N$38:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1443,11 +1510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200607616"/>
-        <c:axId val="200609152"/>
+        <c:axId val="147263488"/>
+        <c:axId val="137660672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200607616"/>
+        <c:axId val="147263488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200609152"/>
+        <c:crossAx val="137660672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1465,7 +1532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200609152"/>
+        <c:axId val="137660672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,10 +1543,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200607616"/>
+        <c:crossAx val="147263488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1736,38 +1809,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -1845,6 +1886,38 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>721178</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2139,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="G11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2164,14 +2237,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2210,22 +2283,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -2261,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>14</v>
@@ -2293,7 +2366,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="42">
         <v>0.7</v>
@@ -2704,10 +2777,10 @@
         <v>67</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S30" s="41"/>
     </row>
@@ -2757,7 +2830,7 @@
     </row>
     <row r="35" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P35" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q35">
         <f>SUM(Q31:Q34)</f>
@@ -2784,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="I12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="D8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,14 +2883,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2856,23 +2929,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="64"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -2907,13 +2980,13 @@
         <v>2</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>23</v>
@@ -2945,10 +3018,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>31</v>
@@ -2978,10 +3051,10 @@
       </c>
       <c r="H15" s="42"/>
       <c r="J15" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
@@ -3006,17 +3079,17 @@
       <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>66</v>
+      <c r="G16" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="H16" s="42">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>24</v>
@@ -3046,13 +3119,13 @@
       </c>
       <c r="H17" s="42"/>
       <c r="J17" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="M17" s="14">
         <v>2</v>
@@ -3081,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>22</v>
@@ -3114,10 +3187,10 @@
       </c>
       <c r="H19" s="42"/>
       <c r="J19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>23</v>
@@ -3149,10 +3222,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>25</v>
@@ -3182,10 +3255,10 @@
       </c>
       <c r="H21" s="42"/>
       <c r="J21" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="26" t="s">
         <v>22</v>
@@ -3210,8 +3283,8 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="51" t="s">
-        <v>72</v>
+      <c r="G22" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="H22" s="42">
         <v>0.4</v>
@@ -3275,10 +3348,10 @@
       <c r="H24" s="42">
         <v>1</v>
       </c>
-      <c r="L24" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" s="58">
+      <c r="L24" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="59">
         <v>4</v>
       </c>
       <c r="P24">
@@ -3332,7 +3405,7 @@
       <c r="G26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="53"/>
+      <c r="H26" s="54"/>
       <c r="P26">
         <v>65</v>
       </c>
@@ -3355,22 +3428,22 @@
       </c>
     </row>
     <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="50">
+      <c r="E27" s="51">
         <v>3</v>
       </c>
-      <c r="F27" s="50">
-        <v>4</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="54">
+      <c r="F27" s="51">
+        <v>4</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="55">
         <v>0.5</v>
       </c>
       <c r="P27" s="32" t="s">
@@ -3400,8 +3473,8 @@
         <f>SUM(F14:F27)</f>
         <v>69</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3409,13 +3482,13 @@
         <v>67</v>
       </c>
       <c r="Q30" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="R30" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" s="41" t="s">
         <v>93</v>
-      </c>
-      <c r="R30" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="S30" s="41" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3495,7 +3568,7 @@
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.25">
       <c r="P36" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q36">
         <f>SUM(Q31:Q35)</f>
@@ -3517,8 +3590,8 @@
       <c r="O38">
         <v>65</v>
       </c>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
     </row>
     <row r="39" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N39">
@@ -3548,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U39"/>
+  <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3565,7 +3638,7 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
@@ -3575,14 +3648,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3621,23 +3694,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -3672,17 +3745,19 @@
         <v>2</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>66</v>
@@ -3707,12 +3782,14 @@
       <c r="H14" s="42">
         <v>1</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>24</v>
+      <c r="L14" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="M14" s="2">
         <v>2</v>
@@ -3738,15 +3815,17 @@
         <v>4</v>
       </c>
       <c r="H15" s="42"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="K15" s="11" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="35" t="s">
         <v>66</v>
@@ -3771,9 +3850,11 @@
       <c r="H16" s="42">
         <v>1</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="K16" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>22</v>
@@ -3802,17 +3883,19 @@
         <v>4</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="15">
-        <v>4</v>
-      </c>
-      <c r="N17" s="35" t="s">
+      <c r="J17" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="67">
+        <v>1</v>
+      </c>
+      <c r="N17" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3835,12 +3918,14 @@
       <c r="H18" s="42">
         <v>1</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="M18" s="14">
         <v>2</v>
@@ -3849,7 +3934,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="23" t="s">
         <v>9</v>
       </c>
@@ -3866,13 +3951,19 @@
         <v>4</v>
       </c>
       <c r="H19" s="42"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="47" t="s">
+      <c r="J19" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3895,16 +3986,27 @@
       <c r="H20" s="42">
         <v>1</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="6">
-        <f>SUM(M13:M19)</f>
-        <v>12</v>
-      </c>
-      <c r="N20" s="17"/>
+      <c r="J20" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="2">
+        <v>3</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20">
+        <v>65</v>
+      </c>
+      <c r="Q20">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="23" t="s">
@@ -3923,8 +4025,23 @@
         <v>4</v>
       </c>
       <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="J21" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="23" t="s">
         <v>12</v>
       </c>
@@ -3937,17 +4054,34 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="51" t="s">
-        <v>72</v>
+      <c r="G22" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="H22" s="42">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="M22" s="27">
+        <v>2</v>
+      </c>
+      <c r="N22" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="P22">
+        <f>P23</f>
         <v>65</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <f>P22-R34</f>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.25">
@@ -3969,9 +4103,22 @@
       <c r="H23" s="42"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
+      <c r="L23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="6">
+        <f>SUM(M13:M22)</f>
+        <v>16</v>
+      </c>
       <c r="N23" s="17"/>
+      <c r="P23">
+        <f>P24</f>
+        <v>65</v>
+      </c>
+      <c r="Q23">
+        <f>Q24+(R34-Q34)</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" s="23" t="s">
@@ -3993,12 +4140,24 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <f>P25</f>
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="Q24">
-        <f>P24-R35</f>
-        <v>-17</v>
+        <f>P24-17</f>
+        <v>48</v>
+      </c>
+      <c r="R24">
+        <f>Q24-M23+4</f>
+        <v>36</v>
+      </c>
+      <c r="S24">
+        <v>26</v>
+      </c>
+      <c r="T24">
+        <v>13</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.25">
@@ -4014,199 +4173,236 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="42"/>
-      <c r="P25">
-        <f>P26</f>
-        <v>4</v>
-      </c>
-      <c r="Q25">
-        <f>Q26+(R35-Q35)</f>
-        <v>-9</v>
+      <c r="G25" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="42">
+        <v>1</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="15">
         <v>3</v>
       </c>
-      <c r="F26" s="2">
-        <v>10</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="P26">
-        <f>F27</f>
-        <v>4</v>
-      </c>
-      <c r="Q26">
-        <f>P26-17</f>
-        <v>-13</v>
-      </c>
-      <c r="R26">
-        <v>37</v>
-      </c>
-      <c r="S26">
-        <v>26</v>
-      </c>
-      <c r="T26">
+      <c r="F26" s="15">
+        <v>5</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="42">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="30">
+        <v>4</v>
+      </c>
+      <c r="F28" s="30">
+        <v>5</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="70"/>
+      <c r="P28" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="17"/>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4">
+        <f>SUM(F14:F28)</f>
+        <v>69</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="P29" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="38">
+        <v>8</v>
+      </c>
+      <c r="R29" s="39">
         <v>13</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="50">
+      <c r="S29">
+        <f>R29-SUM('Iteration-1'!M12:M13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>4</v>
+      </c>
+      <c r="R30" s="39">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <f>R30-SUM('Iteration-1'!M14:M16)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="38">
         <v>3</v>
       </c>
-      <c r="F27" s="50">
-        <v>4</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="R27" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="T27" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="U27" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="4">
-        <f>SUM(F14:F27)</f>
+      <c r="Q31" s="39">
+        <v>6</v>
+      </c>
+      <c r="R31" s="39">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <f>R31</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="38">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>12</v>
+      </c>
+      <c r="R32" s="39">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <f>R32</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="38">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>4</v>
+      </c>
+      <c r="R33" s="39">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <f>R33</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="P34" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-    </row>
-    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P30" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q30" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="R30" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="S30" s="41"/>
-    </row>
-    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P31" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="38">
-        <v>8</v>
-      </c>
-      <c r="R31" s="39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P32" s="40">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="39">
-        <v>4</v>
-      </c>
-      <c r="R32" s="39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P33" s="38">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="39">
-        <v>2</v>
-      </c>
-      <c r="R33" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="38">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="39">
-        <v>3</v>
-      </c>
-      <c r="R34" s="39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P35" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q35">
-        <f>SUM(Q31:Q34)</f>
+      <c r="Q34">
+        <f>SUM(Q29:Q33)</f>
+        <v>34</v>
+      </c>
+      <c r="R34">
+        <f>SUM(R29:R33)</f>
+        <v>31</v>
+      </c>
+      <c r="S34">
+        <f>SUM(S29:S33)</f>
         <v>17</v>
       </c>
-      <c r="R35">
-        <f>SUM(R31:R34)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P37" s="52">
+    </row>
+    <row r="36" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N36">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P38" s="52">
+      <c r="O36">
+        <v>65</v>
+      </c>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+    </row>
+    <row r="37" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N37">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P39" s="52">
-        <v>41</v>
+      <c r="O37">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N38" t="e">
+        <f>N37-S34+#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J11:N11"/>
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="121">
   <si>
     <t>STORY</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Erdi Koç &amp; İsmetcan</t>
+  </si>
+  <si>
+    <t>WEEK6</t>
   </si>
 </sst>
 </file>
@@ -844,7 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -947,6 +950,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -962,16 +970,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1124,11 +1126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137521152"/>
-        <c:axId val="54270720"/>
+        <c:axId val="120740352"/>
+        <c:axId val="120358592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137521152"/>
+        <c:axId val="120740352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54270720"/>
+        <c:crossAx val="120358592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1146,7 +1148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54270720"/>
+        <c:axId val="120358592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137521152"/>
+        <c:crossAx val="120740352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,11 +1316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66702336"/>
-        <c:axId val="137658944"/>
+        <c:axId val="57428480"/>
+        <c:axId val="120360320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66702336"/>
+        <c:axId val="57428480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137658944"/>
+        <c:crossAx val="120360320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1336,7 +1338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137658944"/>
+        <c:axId val="120360320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66702336"/>
+        <c:crossAx val="57428480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1438,26 +1440,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-2'!$P$26:$U$26</c:f>
+              <c:f>'Iteration-3'!$P$24:$V$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>54.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>43.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>32.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>21.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>10.833333333333323</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1482,18 +1487,21 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-2'!$N$38:$N$40</c:f>
+              <c:f>'Iteration-3'!$P$23:$S$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>56.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,11 +1518,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147263488"/>
-        <c:axId val="137660672"/>
+        <c:axId val="120782336"/>
+        <c:axId val="120362048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147263488"/>
+        <c:axId val="120782336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137660672"/>
+        <c:crossAx val="120362048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1532,7 +1540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137660672"/>
+        <c:axId val="120362048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147263488"/>
+        <c:crossAx val="120782336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2212,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="G11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,14 +2245,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2283,22 +2291,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -2857,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,14 +2891,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2929,23 +2937,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="64"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -3621,10 +3629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U38"/>
+  <dimension ref="B2:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,14 +3656,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3694,22 +3702,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -3757,7 +3765,7 @@
         <v>31</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>66</v>
@@ -3866,7 +3874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C17" s="23" t="s">
         <v>7</v>
       </c>
@@ -3883,23 +3891,27 @@
         <v>4</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="K17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="67">
-        <v>1</v>
-      </c>
-      <c r="N17" s="43" t="s">
+      <c r="M17" s="68">
+        <v>1</v>
+      </c>
+      <c r="N17" s="35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f>65/6</f>
+        <v>10.833333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C18" s="23" t="s">
         <v>8</v>
       </c>
@@ -3934,7 +3946,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C19" s="23" t="s">
         <v>9</v>
       </c>
@@ -3967,7 +3979,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C20" s="23" t="s">
         <v>10</v>
       </c>
@@ -4008,7 +4020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C21" s="23" t="s">
         <v>11</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="23" t="s">
         <v>12</v>
       </c>
@@ -4080,11 +4092,11 @@
         <v>65</v>
       </c>
       <c r="Q22">
-        <f>P22-R34</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+        <f>P22-R35</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C23" s="23" t="s">
         <v>13</v>
       </c>
@@ -4108,19 +4120,26 @@
       </c>
       <c r="M23" s="6">
         <f>SUM(M13:M22)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17"/>
       <c r="P23">
         <f>P24</f>
         <v>65</v>
       </c>
-      <c r="Q23">
-        <f>Q24+(R34-Q34)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q23" s="69">
+        <f>Q24+(R35-Q35)</f>
+        <v>56.166666666666664</v>
+      </c>
+      <c r="R23">
+        <v>41</v>
+      </c>
+      <c r="S23">
+        <f>41-M23+2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C24" s="23" t="s">
         <v>14</v>
       </c>
@@ -4142,25 +4161,32 @@
       <c r="P24">
         <v>65</v>
       </c>
-      <c r="Q24">
-        <f>P24-17</f>
-        <v>48</v>
-      </c>
-      <c r="R24">
-        <f>Q24-M23+4</f>
-        <v>36</v>
-      </c>
-      <c r="S24">
-        <v>26</v>
-      </c>
-      <c r="T24">
-        <v>13</v>
-      </c>
-      <c r="U24">
+      <c r="Q24" s="69">
+        <f>P24-Q17</f>
+        <v>54.166666666666664</v>
+      </c>
+      <c r="R24" s="69">
+        <f>Q24-Q17</f>
+        <v>43.333333333333329</v>
+      </c>
+      <c r="S24" s="69">
+        <f>R24-Q17</f>
+        <v>32.499999999999993</v>
+      </c>
+      <c r="T24" s="69">
+        <f>S24-Q17</f>
+        <v>21.666666666666657</v>
+      </c>
+      <c r="U24" s="69">
+        <f>T24-Q17</f>
+        <v>10.833333333333323</v>
+      </c>
+      <c r="V24" s="69">
+        <f>U24-Q17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C25" s="23" t="s">
         <v>19</v>
       </c>
@@ -4197,12 +4223,15 @@
       <c r="U25" s="32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="68" t="s">
+      <c r="V25" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="61" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="15">
@@ -4218,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="23" t="s">
         <v>81</v>
       </c>
@@ -4238,7 +4267,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="29" t="s">
         <v>109</v>
       </c>
@@ -4254,7 +4283,7 @@
       <c r="G28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="62"/>
       <c r="P28" s="44" t="s">
         <v>67</v>
       </c>
@@ -4268,7 +4297,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="17"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
@@ -4280,94 +4309,109 @@
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="P29" s="37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="38">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R29" s="39">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <f>R29-SUM('Iteration-1'!M12:M13)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>Q29-R29</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P30" s="40">
         <v>7</v>
       </c>
       <c r="Q30" s="39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R30" s="39">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:S34" si="0">Q30-R30</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="38">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="39">
         <v>8</v>
       </c>
-      <c r="S30">
-        <f>R30-SUM('Iteration-1'!M14:M16)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P31" s="38">
+      <c r="R31" s="39">
         <v>3</v>
       </c>
-      <c r="Q31" s="39">
-        <v>6</v>
-      </c>
-      <c r="R31" s="39">
-        <v>4</v>
-      </c>
       <c r="S31">
-        <f>R31</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P32" s="38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="39">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R32" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <f>R32</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P33" s="38">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>5</v>
+      </c>
+      <c r="R33" s="39">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38">
         <v>14</v>
       </c>
-      <c r="Q33" s="39">
-        <v>4</v>
-      </c>
-      <c r="R33" s="39">
-        <v>2</v>
-      </c>
-      <c r="S33">
-        <f>R33</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="P34" s="36" t="s">
+      <c r="Q34" s="39">
+        <v>0</v>
+      </c>
+      <c r="R34" s="39">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="35" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="P35" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="Q34">
-        <f>SUM(Q29:Q33)</f>
-        <v>34</v>
-      </c>
-      <c r="R34">
-        <f>SUM(R29:R33)</f>
-        <v>31</v>
-      </c>
-      <c r="S34">
-        <f>SUM(S29:S33)</f>
+      <c r="Q35">
+        <f>SUM(Q29:Q34)</f>
+        <v>15</v>
+      </c>
+      <c r="R35">
+        <f>SUM(R29:R34)</f>
         <v>17</v>
+      </c>
+      <c r="S35">
+        <f>SUM(S29:S34)</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.25">
@@ -4386,12 +4430,6 @@
       </c>
       <c r="O37">
         <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N38" t="e">
-        <f>N37-S34+#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -4410,7 +4448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration-1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Iteration-3" sheetId="3" r:id="rId3"/>
     <sheet name="Iteration-4" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration-5" sheetId="5" r:id="rId5"/>
+    <sheet name="Iteration-6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="145">
   <si>
     <t>STORY</t>
   </si>
@@ -381,6 +382,78 @@
   </si>
   <si>
     <t>WEEK6</t>
+  </si>
+  <si>
+    <t>#9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter students with respect to name </t>
+  </si>
+  <si>
+    <t>Nazli Karalar</t>
+  </si>
+  <si>
+    <t>#13.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorm and room can be changed </t>
+  </si>
+  <si>
+    <t>Kağan Kayaalp</t>
+  </si>
+  <si>
+    <t>#14.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorm capacity chart </t>
+  </si>
+  <si>
+    <t>#6.1</t>
+  </si>
+  <si>
+    <t>#4.1</t>
+  </si>
+  <si>
+    <t>#4.2</t>
+  </si>
+  <si>
+    <t>Add Damaged Item GUI</t>
+  </si>
+  <si>
+    <t>Add Lost Item GUI</t>
+  </si>
+  <si>
+    <t>#4.3</t>
+  </si>
+  <si>
+    <t>#4.4</t>
+  </si>
+  <si>
+    <t>Items List GUI</t>
+  </si>
+  <si>
+    <t>Damaged/Lost/Closed Items Procedures</t>
+  </si>
+  <si>
+    <t>#4.5</t>
+  </si>
+  <si>
+    <t>Closed Item GUI</t>
+  </si>
+  <si>
+    <t>Ismetcan Hergünsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment GUI </t>
+  </si>
+  <si>
+    <t>#4.6</t>
+  </si>
+  <si>
+    <t>Lost and Damaged Items can be closed</t>
+  </si>
+  <si>
+    <t>Nazli Karalar &amp; Erdi Koç</t>
   </si>
 </sst>
 </file>
@@ -488,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -842,12 +915,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -958,6 +1044,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -970,10 +1063,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,11 +1218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120740352"/>
-        <c:axId val="120358592"/>
+        <c:axId val="95847936"/>
+        <c:axId val="85252288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120740352"/>
+        <c:axId val="95847936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120358592"/>
+        <c:crossAx val="85252288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1148,7 +1240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120358592"/>
+        <c:axId val="85252288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120740352"/>
+        <c:crossAx val="95847936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1316,11 +1408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57428480"/>
-        <c:axId val="120360320"/>
+        <c:axId val="87598592"/>
+        <c:axId val="95469568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57428480"/>
+        <c:axId val="87598592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120360320"/>
+        <c:crossAx val="95469568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1338,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120360320"/>
+        <c:axId val="95469568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57428480"/>
+        <c:crossAx val="87598592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1362,7 +1454,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1518,11 +1609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120782336"/>
-        <c:axId val="120362048"/>
+        <c:axId val="95565824"/>
+        <c:axId val="95471296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120782336"/>
+        <c:axId val="95565824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120362048"/>
+        <c:crossAx val="95471296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1540,7 +1631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120362048"/>
+        <c:axId val="95471296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1642,244 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120782336"/>
+        <c:crossAx val="95565824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal Task Remaining</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration-4'!$P$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WEEK6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration-3'!$P$24:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.833333333333323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Tasks Remaining</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration-4'!$P$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WEEK6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration-4'!$P$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="42660864"/>
+        <c:axId val="96833472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="42660864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96833472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96833472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42660864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1931,6 +2259,124 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="885824"/>
+          <a:ext cx="5715000" cy="1066801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F1FCBC"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1"/>
+            <a:t>Description:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DMS is a desktop application which enables dormitory managers to track students living in their dorms.They will be able to enter students' registrations including student's information (names, surnames, e-mails etc), residents' fees, debts and also they can define the room types and their prices. Besides, this program shows the room of the students and their start/end dates of staying in the dorm.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>721178</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2245,14 +2691,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2291,22 +2737,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -2891,14 +3337,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2937,23 +3383,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -3631,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,14 +4102,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3702,22 +4148,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -3900,7 +4346,7 @@
       <c r="L17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="64">
         <v>1</v>
       </c>
       <c r="N17" s="35" t="s">
@@ -4127,7 +4573,7 @@
         <f>P24</f>
         <v>65</v>
       </c>
-      <c r="Q23" s="69">
+      <c r="Q23" s="65">
         <f>Q24+(R35-Q35)</f>
         <v>56.166666666666664</v>
       </c>
@@ -4161,27 +4607,27 @@
       <c r="P24">
         <v>65</v>
       </c>
-      <c r="Q24" s="69">
+      <c r="Q24" s="65">
         <f>P24-Q17</f>
         <v>54.166666666666664</v>
       </c>
-      <c r="R24" s="69">
+      <c r="R24" s="65">
         <f>Q24-Q17</f>
         <v>43.333333333333329</v>
       </c>
-      <c r="S24" s="69">
+      <c r="S24" s="65">
         <f>R24-Q17</f>
         <v>32.499999999999993</v>
       </c>
-      <c r="T24" s="69">
+      <c r="T24" s="65">
         <f>S24-Q17</f>
         <v>21.666666666666657</v>
       </c>
-      <c r="U24" s="69">
+      <c r="U24" s="65">
         <f>T24-Q17</f>
         <v>10.833333333333323</v>
       </c>
-      <c r="V24" s="69">
+      <c r="V24" s="65">
         <f>U24-Q17</f>
         <v>0</v>
       </c>
@@ -4446,15 +4892,818 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+    </row>
+    <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="63"/>
+      <c r="J12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="42">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="J15" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="12">
+        <v>2</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="42">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="42">
+        <v>1</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="64">
+        <v>1</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17">
+        <f>65/6</f>
+        <v>10.833333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="42">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="14">
+        <v>1</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="42">
+        <v>1</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20">
+        <v>65</v>
+      </c>
+      <c r="Q20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="J21" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" s="64">
+        <v>2</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="27">
+        <v>1</v>
+      </c>
+      <c r="N22" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22">
+        <f>P23</f>
+        <v>65</v>
+      </c>
+      <c r="Q22">
+        <f>P22-R35</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="42">
+        <v>1</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="6">
+        <f>SUM(M13:M22)</f>
+        <v>13</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="P23">
+        <f>P24</f>
+        <v>65</v>
+      </c>
+      <c r="Q23" s="65">
+        <f>Q24+(R35-Q35)</f>
+        <v>57.166666666666664</v>
+      </c>
+      <c r="R23">
+        <v>41</v>
+      </c>
+      <c r="S23">
+        <v>25</v>
+      </c>
+      <c r="T23">
+        <f>S23-(Q35+S35)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="65">
+        <f>P24-Q17</f>
+        <v>54.166666666666664</v>
+      </c>
+      <c r="R24" s="65">
+        <f>Q24-Q17</f>
+        <v>43.333333333333329</v>
+      </c>
+      <c r="S24" s="65">
+        <f>R24-Q17</f>
+        <v>32.499999999999993</v>
+      </c>
+      <c r="T24" s="65">
+        <f>S24-Q17</f>
+        <v>21.666666666666657</v>
+      </c>
+      <c r="U24" s="65">
+        <f>T24-Q17</f>
+        <v>10.833333333333323</v>
+      </c>
+      <c r="V24" s="65">
+        <f>U24-Q17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="42">
+        <v>1</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="V25" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="15">
+        <v>3</v>
+      </c>
+      <c r="F26" s="15">
+        <v>5</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="42">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="30">
+        <v>4</v>
+      </c>
+      <c r="F28" s="30">
+        <v>5</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="P28" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="17"/>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4">
+        <f>SUM(F14:F28)</f>
+        <v>69</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="P29" s="37">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="38">
+        <v>6</v>
+      </c>
+      <c r="R29" s="39">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <f>Q29-R29</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="40">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>4</v>
+      </c>
+      <c r="R30" s="39">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:S34" si="0">Q30-R30</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="38">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="39">
+        <v>0</v>
+      </c>
+      <c r="R31" s="39">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="38">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>0</v>
+      </c>
+      <c r="R32" s="39">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="38">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>0</v>
+      </c>
+      <c r="R33" s="39">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="P35" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q35">
+        <f>SUM(Q29:Q34)</f>
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <f>SUM(R29:R34)</f>
+        <v>13</v>
+      </c>
+      <c r="S35">
+        <f>SUM(S29:S34)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>65</v>
+      </c>
+      <c r="O36">
+        <v>65</v>
+      </c>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+    </row>
+    <row r="37" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>52</v>
+      </c>
+      <c r="O37">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4468,4 +5717,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="150">
   <si>
     <t>STORY</t>
   </si>
@@ -454,6 +454,21 @@
   </si>
   <si>
     <t>Nazli Karalar &amp; Erdi Koç</t>
+  </si>
+  <si>
+    <t>Male/Female Chart</t>
+  </si>
+  <si>
+    <t>Erdi Koç &amp; Gamze</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>Show male/female capacity</t>
+  </si>
+  <si>
+    <t>#15.1</t>
   </si>
 </sst>
 </file>
@@ -561,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -928,12 +943,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1048,6 +1156,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1063,9 +1174,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,11 +1339,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95847936"/>
-        <c:axId val="85252288"/>
+        <c:axId val="133134848"/>
+        <c:axId val="88201984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95847936"/>
+        <c:axId val="133134848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85252288"/>
+        <c:crossAx val="88201984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1240,7 +1361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85252288"/>
+        <c:axId val="88201984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,14 +1372,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95847936"/>
+        <c:crossAx val="133134848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1408,11 +1528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87598592"/>
-        <c:axId val="95469568"/>
+        <c:axId val="100833792"/>
+        <c:axId val="100958784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87598592"/>
+        <c:axId val="100833792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +1542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95469568"/>
+        <c:crossAx val="100958784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1430,7 +1550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95469568"/>
+        <c:axId val="100958784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87598592"/>
+        <c:crossAx val="100833792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,6 +1574,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1609,11 +1730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95565824"/>
-        <c:axId val="95471296"/>
+        <c:axId val="101027328"/>
+        <c:axId val="100960512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95565824"/>
+        <c:axId val="101027328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95471296"/>
+        <c:crossAx val="100960512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1631,7 +1752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95471296"/>
+        <c:axId val="100960512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95565824"/>
+        <c:crossAx val="101027328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1820,7 +1941,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.166666666666664</c:v>
+                  <c:v>58.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>41</c:v>
@@ -1829,7 +1950,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,11 +1967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42660864"/>
-        <c:axId val="96833472"/>
+        <c:axId val="101025792"/>
+        <c:axId val="100962240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42660864"/>
+        <c:axId val="101025792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,7 +1981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96833472"/>
+        <c:crossAx val="100962240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1868,7 +1989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96833472"/>
+        <c:axId val="100962240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,7 +2000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42660864"/>
+        <c:crossAx val="101025792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2691,14 +2812,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2737,22 +2858,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -3337,14 +3458,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3383,23 +3504,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -4077,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V37"/>
   <sheetViews>
-    <sheetView topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:S23"/>
+    <sheetView topLeftCell="G10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4102,14 +4223,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4148,22 +4269,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -4894,8 +5015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4917,14 +5038,14 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4963,22 +5084,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="63"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -5010,10 +5131,10 @@
       <c r="F13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="80" t="s">
         <v>70</v>
       </c>
       <c r="J13" s="23" t="s">
@@ -5045,10 +5166,10 @@
       <c r="F14" s="2">
         <v>8</v>
       </c>
-      <c r="G14" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="42">
+      <c r="G14" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="54">
         <v>1</v>
       </c>
       <c r="J14" s="23" t="s">
@@ -5080,10 +5201,10 @@
       <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="42"/>
+      <c r="G15" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="54"/>
       <c r="J15" s="24" t="s">
         <v>127</v>
       </c>
@@ -5113,10 +5234,10 @@
       <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="42">
+      <c r="G16" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="54">
         <v>1</v>
       </c>
       <c r="J16" s="24" t="s">
@@ -5148,10 +5269,10 @@
       <c r="F17" s="2">
         <v>6</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="42">
+      <c r="G17" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="54">
         <v>1</v>
       </c>
       <c r="J17" s="24" t="s">
@@ -5160,7 +5281,7 @@
       <c r="K17" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="71" t="s">
+      <c r="L17" s="66" t="s">
         <v>112</v>
       </c>
       <c r="M17" s="64">
@@ -5187,10 +5308,10 @@
       <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="42">
+      <c r="G18" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="54">
         <v>1</v>
       </c>
       <c r="J18" s="24" t="s">
@@ -5222,10 +5343,10 @@
       <c r="F19" s="2">
         <v>4</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="54">
         <v>0.3</v>
       </c>
       <c r="J19" s="23" t="s">
@@ -5234,7 +5355,7 @@
       <c r="K19" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L19" s="72" t="s">
+      <c r="L19" s="67" t="s">
         <v>112</v>
       </c>
       <c r="M19" s="2">
@@ -5257,10 +5378,10 @@
       <c r="F20" s="2">
         <v>4</v>
       </c>
-      <c r="G20" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="42">
+      <c r="G20" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="54">
         <v>1</v>
       </c>
       <c r="J20" s="23" t="s">
@@ -5298,10 +5419,12 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="42"/>
+      <c r="G21" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="54">
+        <v>1</v>
+      </c>
       <c r="J21" s="24" t="s">
         <v>142</v>
       </c>
@@ -5318,7 +5441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
         <v>12</v>
       </c>
@@ -5331,25 +5454,25 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="42">
-        <v>1</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22" s="27">
-        <v>1</v>
-      </c>
-      <c r="N22" s="47" t="s">
+      <c r="G22" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="54">
+        <v>1</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" s="64">
+        <v>1</v>
+      </c>
+      <c r="N22" s="35" t="s">
         <v>66</v>
       </c>
       <c r="P22">
@@ -5358,10 +5481,10 @@
       </c>
       <c r="Q22">
         <f>P22-R35</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="23" t="s">
         <v>13</v>
       </c>
@@ -5374,29 +5497,32 @@
       <c r="F23" s="2">
         <v>4</v>
       </c>
-      <c r="G23" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="42">
-        <v>1</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="6">
-        <f>SUM(M13:M22)</f>
-        <v>13</v>
-      </c>
-      <c r="N23" s="17"/>
+      <c r="G23" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="J23" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="27">
+        <v>1</v>
+      </c>
+      <c r="N23" s="47" t="s">
+        <v>66</v>
+      </c>
       <c r="P23">
         <f>P24</f>
         <v>65</v>
       </c>
       <c r="Q23" s="65">
         <f>Q24+(R35-Q35)</f>
-        <v>57.166666666666664</v>
+        <v>58.166666666666664</v>
       </c>
       <c r="R23">
         <v>41</v>
@@ -5405,8 +5531,8 @@
         <v>25</v>
       </c>
       <c r="T23">
-        <f>S23-(Q35+S35)</f>
-        <v>18</v>
+        <f>S23-M24+4</f>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.25">
@@ -5422,12 +5548,22 @@
       <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="42">
-        <v>1</v>
-      </c>
+      <c r="G24" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="82">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="6">
+        <f>SUM(M13:M23)</f>
+        <v>14</v>
+      </c>
+      <c r="N24" s="17"/>
       <c r="P24">
         <v>65</v>
       </c>
@@ -5469,10 +5605,10 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="42">
+      <c r="G25" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="54">
         <v>1</v>
       </c>
       <c r="P25" s="32" t="s">
@@ -5510,10 +5646,10 @@
       <c r="F26" s="15">
         <v>5</v>
       </c>
-      <c r="G26" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="42">
+      <c r="G26" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5530,30 +5666,32 @@
       <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="42">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="30">
-        <v>4</v>
-      </c>
-      <c r="F28" s="30">
-        <v>5</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="62"/>
+      <c r="H28" s="54">
+        <v>0.8</v>
+      </c>
       <c r="P28" s="44" t="s">
         <v>67</v>
       </c>
@@ -5568,16 +5706,22 @@
       </c>
     </row>
     <row r="29" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="17"/>
-      <c r="D29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="4">
-        <f>SUM(F14:F28)</f>
-        <v>69</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="C29" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="30">
+        <v>4</v>
+      </c>
+      <c r="F29" s="30">
+        <v>5</v>
+      </c>
+      <c r="G29" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="81"/>
       <c r="P29" s="37">
         <v>4</v>
       </c>
@@ -5593,6 +5737,16 @@
       </c>
     </row>
     <row r="30" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="17"/>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4">
+        <f>SUM(F14:F29)</f>
+        <v>72</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
       <c r="P30" s="40">
         <v>6</v>
       </c>
@@ -5603,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <f t="shared" ref="S30:S34" si="0">Q30-R30</f>
+        <f>Q30-R30</f>
         <v>3</v>
       </c>
     </row>
@@ -5618,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <f t="shared" si="0"/>
+        <f>Q31-R31</f>
         <v>-1</v>
       </c>
     </row>
@@ -5633,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <f t="shared" si="0"/>
+        <f>Q32-R32</f>
         <v>-1</v>
       </c>
     </row>
@@ -5645,20 +5799,26 @@
         <v>0</v>
       </c>
       <c r="R33" s="39">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <f>Q33-R33</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="39">
+        <v>0</v>
+      </c>
+      <c r="R34" s="39">
         <v>2</v>
       </c>
-      <c r="S33">
-        <f t="shared" si="0"/>
+      <c r="S34">
+        <f>Q34-R34</f>
         <v>-2</v>
-      </c>
-    </row>
-    <row r="34" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="38"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="14:19" x14ac:dyDescent="0.25">
@@ -5671,11 +5831,11 @@
       </c>
       <c r="R35">
         <f>SUM(R29:R34)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S35">
         <f>SUM(S29:S34)</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.25">

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -1159,6 +1159,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,19 +1185,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1339,11 +1339,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133134848"/>
-        <c:axId val="88201984"/>
+        <c:axId val="110258688"/>
+        <c:axId val="94887232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133134848"/>
+        <c:axId val="110258688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88201984"/>
+        <c:crossAx val="94887232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1361,7 +1361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88201984"/>
+        <c:axId val="94887232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133134848"/>
+        <c:crossAx val="110258688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1528,11 +1528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100833792"/>
-        <c:axId val="100958784"/>
+        <c:axId val="110360064"/>
+        <c:axId val="109855296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100833792"/>
+        <c:axId val="110360064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100958784"/>
+        <c:crossAx val="109855296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1550,7 +1550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100958784"/>
+        <c:axId val="109855296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100833792"/>
+        <c:crossAx val="110360064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1574,7 +1574,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1730,11 +1729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101027328"/>
-        <c:axId val="100960512"/>
+        <c:axId val="110358528"/>
+        <c:axId val="109857024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101027328"/>
+        <c:axId val="110358528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100960512"/>
+        <c:crossAx val="109857024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100960512"/>
+        <c:axId val="109857024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101027328"/>
+        <c:crossAx val="110358528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1941,7 +1940,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.166666666666664</c:v>
+                  <c:v>57.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>41</c:v>
@@ -1950,7 +1949,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,11 +1966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101025792"/>
-        <c:axId val="100962240"/>
+        <c:axId val="111036416"/>
+        <c:axId val="109858752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101025792"/>
+        <c:axId val="111036416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +1980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100962240"/>
+        <c:crossAx val="109858752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1989,7 +1988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100962240"/>
+        <c:axId val="109858752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +1999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101025792"/>
+        <c:crossAx val="111036416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2812,14 +2811,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2858,22 +2857,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -3458,14 +3457,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3504,23 +3503,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="73"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="73"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -4223,14 +4222,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4269,22 +4268,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -5015,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5038,14 +5037,14 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5084,22 +5083,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="63"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -5131,10 +5130,10 @@
       <c r="F13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="75" t="s">
         <v>70</v>
       </c>
       <c r="J13" s="23" t="s">
@@ -5166,7 +5165,7 @@
       <c r="F14" s="2">
         <v>8</v>
       </c>
-      <c r="G14" s="75" t="s">
+      <c r="G14" s="70" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="54">
@@ -5201,7 +5200,7 @@
       <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="71" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="54"/>
@@ -5234,7 +5233,7 @@
       <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="75" t="s">
+      <c r="G16" s="70" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="54">
@@ -5269,7 +5268,7 @@
       <c r="F17" s="2">
         <v>6</v>
       </c>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="70" t="s">
         <v>66</v>
       </c>
       <c r="H17" s="54">
@@ -5308,7 +5307,7 @@
       <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="75" t="s">
+      <c r="G18" s="70" t="s">
         <v>66</v>
       </c>
       <c r="H18" s="54">
@@ -5343,7 +5342,7 @@
       <c r="F19" s="2">
         <v>4</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="72" t="s">
         <v>71</v>
       </c>
       <c r="H19" s="54">
@@ -5378,7 +5377,7 @@
       <c r="F20" s="2">
         <v>4</v>
       </c>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="70" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="54">
@@ -5419,7 +5418,7 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="70" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="54">
@@ -5454,7 +5453,7 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="70" t="s">
         <v>66</v>
       </c>
       <c r="H22" s="54">
@@ -5470,7 +5469,7 @@
         <v>146</v>
       </c>
       <c r="M22" s="64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="35" t="s">
         <v>66</v>
@@ -5497,7 +5496,7 @@
       <c r="F23" s="2">
         <v>4</v>
       </c>
-      <c r="G23" s="76" t="s">
+      <c r="G23" s="71" t="s">
         <v>4</v>
       </c>
       <c r="H23" s="54"/>
@@ -5522,7 +5521,7 @@
       </c>
       <c r="Q23" s="65">
         <f>Q24+(R35-Q35)</f>
-        <v>58.166666666666664</v>
+        <v>57.166666666666664</v>
       </c>
       <c r="R23">
         <v>41</v>
@@ -5531,8 +5530,8 @@
         <v>25</v>
       </c>
       <c r="T23">
-        <f>S23-M24+4</f>
-        <v>15</v>
+        <f>S23-M24+3</f>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.25">
@@ -5548,10 +5547,10 @@
       <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="82">
+      <c r="G24" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="77">
         <v>1</v>
       </c>
       <c r="J24" s="17"/>
@@ -5561,7 +5560,7 @@
       </c>
       <c r="M24" s="6">
         <f>SUM(M13:M23)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N24" s="17"/>
       <c r="P24">
@@ -5605,7 +5604,7 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="75" t="s">
+      <c r="G25" s="70" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="54">
@@ -5646,7 +5645,7 @@
       <c r="F26" s="15">
         <v>5</v>
       </c>
-      <c r="G26" s="75" t="s">
+      <c r="G26" s="70" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="54">
@@ -5666,7 +5665,7 @@
       <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="G27" s="75" t="s">
+      <c r="G27" s="70" t="s">
         <v>66</v>
       </c>
       <c r="H27" s="54">
@@ -5684,9 +5683,9 @@
         <v>4</v>
       </c>
       <c r="F28" s="2">
-        <v>3</v>
-      </c>
-      <c r="G28" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="72" t="s">
         <v>71</v>
       </c>
       <c r="H28" s="54">
@@ -5718,10 +5717,10 @@
       <c r="F29" s="30">
         <v>5</v>
       </c>
-      <c r="G29" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="81"/>
+      <c r="G29" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="76"/>
       <c r="P29" s="37">
         <v>4</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>8</v>
       </c>
       <c r="S29">
-        <f>Q29-R29</f>
+        <f t="shared" ref="S29:S34" si="0">Q29-R29</f>
         <v>-2</v>
       </c>
     </row>
@@ -5743,7 +5742,7 @@
       </c>
       <c r="F30" s="4">
         <f>SUM(F14:F29)</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -5757,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <f>Q30-R30</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5772,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <f>Q31-R31</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -5787,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <f>Q32-R32</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -5802,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="S33">
-        <f>Q33-R33</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -5811,14 +5810,14 @@
         <v>15</v>
       </c>
       <c r="Q34" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="39">
         <v>2</v>
       </c>
       <c r="S34">
-        <f>Q34-R34</f>
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="14:19" x14ac:dyDescent="0.25">
@@ -5827,7 +5826,7 @@
       </c>
       <c r="Q35">
         <f>SUM(Q29:Q34)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R35">
         <f>SUM(R29:R34)</f>
@@ -5835,7 +5834,7 @@
       </c>
       <c r="S35">
         <f>SUM(S29:S34)</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.25">

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration-1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="163">
   <si>
     <t>STORY</t>
   </si>
@@ -469,12 +469,54 @@
   </si>
   <si>
     <t>#15.1</t>
+  </si>
+  <si>
+    <t>#15.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male/female capacity </t>
+  </si>
+  <si>
+    <t>WEEK5 SUM</t>
+  </si>
+  <si>
+    <t>#13.4</t>
+  </si>
+  <si>
+    <t>Added Undo feature to the update student</t>
+  </si>
+  <si>
+    <t>#1.7</t>
+  </si>
+  <si>
+    <t>#4.7</t>
+  </si>
+  <si>
+    <t>#13.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates are updated </t>
+  </si>
+  <si>
+    <t>#6.2</t>
+  </si>
+  <si>
+    <t>Payment cash is done</t>
+  </si>
+  <si>
+    <t>Added filter with respect to dorms, rooms, date</t>
+  </si>
+  <si>
+    <t>#8.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₺_-;\-* #,##0.00\ _₺_-;_-* &quot;-&quot;??\ _₺_-;_-@_-"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,11 +1079,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1175,6 +1218,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1187,8 +1233,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1339,11 +1389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110258688"/>
-        <c:axId val="94887232"/>
+        <c:axId val="108890112"/>
+        <c:axId val="96787776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110258688"/>
+        <c:axId val="108890112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94887232"/>
+        <c:crossAx val="96787776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1361,7 +1411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94887232"/>
+        <c:axId val="96787776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110258688"/>
+        <c:crossAx val="108890112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1528,11 +1578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110360064"/>
-        <c:axId val="109855296"/>
+        <c:axId val="98347008"/>
+        <c:axId val="108741184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110360064"/>
+        <c:axId val="98347008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109855296"/>
+        <c:crossAx val="108741184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1550,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109855296"/>
+        <c:axId val="108741184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110360064"/>
+        <c:crossAx val="98347008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1574,6 +1624,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1729,11 +1780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110358528"/>
-        <c:axId val="109857024"/>
+        <c:axId val="108891648"/>
+        <c:axId val="108742912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110358528"/>
+        <c:axId val="108891648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109857024"/>
+        <c:crossAx val="108742912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1751,7 +1802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109857024"/>
+        <c:axId val="108742912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110358528"/>
+        <c:crossAx val="108891648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1949,7 +2000,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,11 +2017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111036416"/>
-        <c:axId val="109858752"/>
+        <c:axId val="109135872"/>
+        <c:axId val="108744640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111036416"/>
+        <c:axId val="109135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +2031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109858752"/>
+        <c:crossAx val="108744640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1988,7 +2039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109858752"/>
+        <c:axId val="108744640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +2050,247 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111036416"/>
+        <c:crossAx val="109135872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal Task Remaining</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration-4'!$P$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WEEK6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration-3'!$P$24:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.833333333333323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Tasks Remaining</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration-4'!$P$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WEEK6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration-5'!$P$23:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="87703552"/>
+        <c:axId val="85399744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="87703552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85399744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85399744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87703552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2497,6 +2788,124 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="914399"/>
+          <a:ext cx="5505450" cy="1066801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F1FCBC"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1"/>
+            <a:t>Description:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DMS is a desktop application which enables dormitory managers to track students living in their dorms.They will be able to enter students' registrations including student's information (names, surnames, e-mails etc), residents' fees, debts and also they can define the room types and their prices. Besides, this program shows the room of the students and their start/end dates of staying in the dorm.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>721178</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2811,14 +3220,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2857,22 +3266,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -3457,14 +3866,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3503,23 +3912,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="80" t="s">
+      <c r="J11" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -4222,14 +4631,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4268,22 +4677,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -5014,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView topLeftCell="G3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5037,14 +5446,14 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5083,22 +5492,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="63"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -5530,8 +5939,8 @@
         <v>25</v>
       </c>
       <c r="T23">
-        <f>S23-M24+3</f>
-        <v>13</v>
+        <f>S23-M24+3+F29</f>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.25">
@@ -5868,13 +6277,770 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+    </row>
+    <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="78"/>
+      <c r="J12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="54">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="84">
+        <v>2</v>
+      </c>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="J15" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="35"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="54">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="35"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="54">
+        <v>1</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="35"/>
+      <c r="Q17">
+        <f>65/6</f>
+        <v>10.833333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="54">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="14">
+        <v>2</v>
+      </c>
+      <c r="N18" s="35"/>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" s="35"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="54">
+        <v>1</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="35"/>
+      <c r="P20">
+        <v>65</v>
+      </c>
+      <c r="Q20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="54">
+        <v>1</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="35"/>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="54">
+        <v>1</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="35"/>
+      <c r="P22">
+        <f>P23</f>
+        <v>65</v>
+      </c>
+      <c r="Q22">
+        <f>P22-R35</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="47"/>
+      <c r="P23">
+        <f>P24</f>
+        <v>65</v>
+      </c>
+      <c r="Q23" s="65">
+        <f>Q24+(R35-Q35)</f>
+        <v>54.166666666666664</v>
+      </c>
+      <c r="R23">
+        <v>41</v>
+      </c>
+      <c r="S23">
+        <v>25</v>
+      </c>
+      <c r="T23">
+        <v>18</v>
+      </c>
+      <c r="U23">
+        <f>T23-M24+7</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="77">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M24" s="6">
+        <f>SUM(M13:M23)</f>
+        <v>10</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="P24">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="65">
+        <f>P24-Q17</f>
+        <v>54.166666666666664</v>
+      </c>
+      <c r="R24" s="65">
+        <f>Q24-Q17</f>
+        <v>43.333333333333329</v>
+      </c>
+      <c r="S24" s="65">
+        <f>R24-Q17</f>
+        <v>32.499999999999993</v>
+      </c>
+      <c r="T24" s="65">
+        <f>S24-Q17</f>
+        <v>21.666666666666657</v>
+      </c>
+      <c r="U24" s="65">
+        <f>T24-Q17</f>
+        <v>10.833333333333323</v>
+      </c>
+      <c r="V24" s="65">
+        <f>U24-Q17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="54">
+        <v>1</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="V25" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="15">
+        <v>3</v>
+      </c>
+      <c r="F26" s="15">
+        <v>5</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="54">
+        <v>1</v>
+      </c>
+      <c r="P28" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="30">
+        <v>4</v>
+      </c>
+      <c r="F29" s="30">
+        <v>5</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="76"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="39"/>
+      <c r="S29">
+        <f t="shared" ref="S29:S34" si="0">Q29-R29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="17"/>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4">
+        <f>SUM(F14:F29)</f>
+        <v>70</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="38"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="38"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="38"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="P35" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q35">
+        <f>SUM(Q29:Q34)</f>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f>SUM(R29:R34)</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f>SUM(S29:S34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>65</v>
+      </c>
+      <c r="O36">
+        <v>65</v>
+      </c>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+    </row>
+    <row r="37" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>52</v>
+      </c>
+      <c r="O37">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="171">
   <si>
     <t>STORY</t>
   </si>
@@ -495,9 +495,6 @@
     <t>#13.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Dates are updated </t>
-  </si>
-  <si>
     <t>#6.2</t>
   </si>
   <si>
@@ -508,6 +505,33 @@
   </si>
   <si>
     <t>#8.2</t>
+  </si>
+  <si>
+    <t>Dates are updated for student personal data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep track of lost and damaged material </t>
+  </si>
+  <si>
+    <t>Dates are updated for lost and damaged material</t>
+  </si>
+  <si>
+    <t>Dates are updated for student update info</t>
+  </si>
+  <si>
+    <t>#6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment GUI is updated </t>
+  </si>
+  <si>
+    <t>#6.4</t>
+  </si>
+  <si>
+    <t>Updated GUI Standard for all</t>
+  </si>
+  <si>
+    <t>Update Hour</t>
   </si>
 </sst>
 </file>
@@ -515,7 +539,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₺_-;\-* #,##0.00\ _₺_-;_-* &quot;-&quot;??\ _₺_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₺_-;\-* #,##0.00\ _₺_-;_-* &quot;-&quot;??\ _₺_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1082,7 +1106,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1218,6 +1242,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1231,9 +1258,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1260,7 +1284,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1389,11 +1413,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108890112"/>
-        <c:axId val="96787776"/>
+        <c:axId val="202677248"/>
+        <c:axId val="202679040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108890112"/>
+        <c:axId val="202677248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96787776"/>
+        <c:crossAx val="202679040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1411,7 +1435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96787776"/>
+        <c:axId val="202679040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,13 +1446,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108890112"/>
+        <c:crossAx val="202677248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1446,7 +1471,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1578,11 +1603,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98347008"/>
-        <c:axId val="108741184"/>
+        <c:axId val="202439680"/>
+        <c:axId val="202453760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98347008"/>
+        <c:axId val="202439680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108741184"/>
+        <c:crossAx val="202453760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +1625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108741184"/>
+        <c:axId val="202453760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98347008"/>
+        <c:crossAx val="202439680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,7 +1667,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1780,11 +1805,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108891648"/>
-        <c:axId val="108742912"/>
+        <c:axId val="202502528"/>
+        <c:axId val="202504064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108891648"/>
+        <c:axId val="202502528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108742912"/>
+        <c:crossAx val="202504064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1802,7 +1827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108742912"/>
+        <c:axId val="202504064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +1838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108891648"/>
+        <c:crossAx val="202502528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1844,7 +1869,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2017,11 +2042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109135872"/>
-        <c:axId val="108744640"/>
+        <c:axId val="202557696"/>
+        <c:axId val="202592256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109135872"/>
+        <c:axId val="202557696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108744640"/>
+        <c:crossAx val="202592256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2039,7 +2064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108744640"/>
+        <c:axId val="202592256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109135872"/>
+        <c:crossAx val="202557696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2081,7 +2106,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2228,7 +2253,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.166666666666664</c:v>
+                  <c:v>63.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>41</c:v>
@@ -2240,7 +2265,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,11 +2282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87703552"/>
-        <c:axId val="85399744"/>
+        <c:axId val="202635136"/>
+        <c:axId val="202636672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87703552"/>
+        <c:axId val="202635136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85399744"/>
+        <c:crossAx val="202636672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2279,7 +2304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85399744"/>
+        <c:axId val="202636672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,7 +2315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87703552"/>
+        <c:crossAx val="202635136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3220,14 +3245,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3266,22 +3291,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -3866,14 +3891,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3912,23 +3937,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="84"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -4631,14 +4656,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4677,22 +4702,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -5423,8 +5448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5434,7 +5459,7 @@
     <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -5446,14 +5471,14 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5492,22 +5517,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="63"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -6279,8 +6304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,27 +6314,27 @@
     <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6348,22 +6373,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="78"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -6413,7 +6438,9 @@
       <c r="M13" s="2">
         <v>1</v>
       </c>
-      <c r="N13" s="35"/>
+      <c r="N13" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
@@ -6443,10 +6470,12 @@
       <c r="L14" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="84">
+      <c r="M14" s="79">
         <v>2</v>
       </c>
-      <c r="N14" s="35"/>
+      <c r="N14" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
@@ -6469,7 +6498,7 @@
         <v>155</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L15" s="61" t="s">
         <v>21</v>
@@ -6477,7 +6506,9 @@
       <c r="M15" s="2">
         <v>1</v>
       </c>
-      <c r="N15" s="35"/>
+      <c r="N15" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="23" t="s">
@@ -6502,7 +6533,7 @@
         <v>156</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L16" s="61" t="s">
         <v>21</v>
@@ -6510,14 +6541,16 @@
       <c r="M16" s="2">
         <v>1</v>
       </c>
-      <c r="N16" s="35"/>
+      <c r="N16" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C17" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
@@ -6535,7 +6568,7 @@
         <v>157</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L17" s="61" t="s">
         <v>21</v>
@@ -6543,7 +6576,9 @@
       <c r="M17" s="2">
         <v>1</v>
       </c>
-      <c r="N17" s="35"/>
+      <c r="N17" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="Q17">
         <f>65/6</f>
         <v>10.833333333333334</v>
@@ -6569,10 +6604,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>112</v>
@@ -6580,7 +6615,9 @@
       <c r="M18" s="14">
         <v>2</v>
       </c>
-      <c r="N18" s="35"/>
+      <c r="N18" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C19" s="23" t="s">
@@ -6602,10 +6639,10 @@
         <v>0.8</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L19" s="61" t="s">
         <v>21</v>
@@ -6613,7 +6650,9 @@
       <c r="M19" s="2">
         <v>2</v>
       </c>
-      <c r="N19" s="35"/>
+      <c r="N19" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C20" s="23" t="s">
@@ -6634,11 +6673,21 @@
       <c r="H20" s="54">
         <v>1</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="35"/>
+      <c r="J20" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="P20">
         <v>65</v>
       </c>
@@ -6665,11 +6714,21 @@
       <c r="H21" s="54">
         <v>1</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="35"/>
+      <c r="J21" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
@@ -6701,7 +6760,7 @@
       </c>
       <c r="Q22">
         <f>P22-R35</f>
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6732,7 +6791,7 @@
       </c>
       <c r="Q23" s="65">
         <f>Q24+(R35-Q35)</f>
-        <v>54.166666666666664</v>
+        <v>63.166666666666664</v>
       </c>
       <c r="R23">
         <v>41</v>
@@ -6745,7 +6804,7 @@
       </c>
       <c r="U23">
         <f>T23-M24+7</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.25">
@@ -6774,7 +6833,7 @@
       </c>
       <c r="M24" s="6">
         <f>SUM(M13:M23)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N24" s="17"/>
       <c r="P24">
@@ -6935,12 +6994,18 @@
         <v>4</v>
       </c>
       <c r="H29" s="76"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="39"/>
+      <c r="P29" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="38">
+        <v>0</v>
+      </c>
+      <c r="R29" s="39">
+        <v>1</v>
+      </c>
       <c r="S29">
         <f t="shared" ref="S29:S34" si="0">Q29-R29</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6954,51 +7019,81 @@
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
+      <c r="P30" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>0</v>
+      </c>
+      <c r="R30" s="39">
+        <v>1</v>
+      </c>
       <c r="S30">
         <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P31" s="38"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
+      <c r="R31" s="39">
+        <v>2</v>
+      </c>
       <c r="S31">
         <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P32" s="38"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
+      <c r="R32" s="39">
+        <v>2</v>
+      </c>
       <c r="S32">
         <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="38">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P33" s="38"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
+      <c r="R33" s="39">
+        <v>2</v>
+      </c>
       <c r="S33">
         <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="38"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
+      <c r="R34" s="39">
+        <v>1</v>
+      </c>
       <c r="S34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="14:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="14:20" x14ac:dyDescent="0.25">
       <c r="P35" s="36" t="s">
         <v>69</v>
       </c>
@@ -7008,14 +7103,17 @@
       </c>
       <c r="R35">
         <f>SUM(R29:R34)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S35">
         <f>SUM(S29:S34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="14:19" x14ac:dyDescent="0.25">
+        <v>-9</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N36">
         <v>65</v>
       </c>
@@ -7025,7 +7123,7 @@
       <c r="P36" s="53"/>
       <c r="Q36" s="53"/>
     </row>
-    <row r="37" spans="14:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N37">
         <v>52</v>
       </c>
@@ -7040,7 +7138,8 @@
     <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration-1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="187">
   <si>
     <t>STORY</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Update students' information</t>
   </si>
   <si>
-    <t>Update dorms and rooms</t>
-  </si>
-  <si>
     <t>Gamze Küçükçolak</t>
   </si>
   <si>
@@ -532,6 +529,57 @@
   </si>
   <si>
     <t>Update Hour</t>
+  </si>
+  <si>
+    <t>Update dorms</t>
+  </si>
+  <si>
+    <t>Remove students' personal data in DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show remove process </t>
+  </si>
+  <si>
+    <t>#2.1</t>
+  </si>
+  <si>
+    <t>#2.2</t>
+  </si>
+  <si>
+    <t>Display payment history</t>
+  </si>
+  <si>
+    <t>Create payment history in DB</t>
+  </si>
+  <si>
+    <t>#6.5</t>
+  </si>
+  <si>
+    <t>#6.6</t>
+  </si>
+  <si>
+    <t>#16.1</t>
+  </si>
+  <si>
+    <t>Update dorms GUI</t>
+  </si>
+  <si>
+    <t>#16.2</t>
+  </si>
+  <si>
+    <t>Update dorms in DB</t>
+  </si>
+  <si>
+    <t>#10.1</t>
+  </si>
+  <si>
+    <t>Search available rooms GUI</t>
+  </si>
+  <si>
+    <t>#10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create search available rooms in DB </t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1156,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1248,6 +1296,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1260,6 +1311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1413,11 +1465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202677248"/>
-        <c:axId val="202679040"/>
+        <c:axId val="201853952"/>
+        <c:axId val="201855744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202677248"/>
+        <c:axId val="201853952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202679040"/>
+        <c:crossAx val="201855744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1435,7 +1487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202679040"/>
+        <c:axId val="201855744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,7 +1498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202677248"/>
+        <c:crossAx val="201853952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1603,11 +1655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202439680"/>
-        <c:axId val="202453760"/>
+        <c:axId val="202406912"/>
+        <c:axId val="202412800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202439680"/>
+        <c:axId val="202406912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202453760"/>
+        <c:crossAx val="202412800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1625,7 +1677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202453760"/>
+        <c:axId val="202412800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202439680"/>
+        <c:crossAx val="202406912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1774,21 +1826,21 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-3'!$P$23:$S$23</c:f>
+              <c:f>'Iteration-3'!$P$13:$S$13</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.166666666666664</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>25</c:v>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1805,11 +1857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202502528"/>
-        <c:axId val="202504064"/>
+        <c:axId val="202517120"/>
+        <c:axId val="202531200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202502528"/>
+        <c:axId val="202517120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1819,7 +1871,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202504064"/>
+        <c:crossAx val="202531200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1827,7 +1879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202504064"/>
+        <c:axId val="202531200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,7 +1890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202502528"/>
+        <c:crossAx val="202517120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2008,24 +2060,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-4'!$P$23:$T$23</c:f>
+              <c:f>'Iteration-4'!$P$14:$T$14</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.166666666666664</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>18</c:v>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,11 +2094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202557696"/>
-        <c:axId val="202592256"/>
+        <c:axId val="202022912"/>
+        <c:axId val="202024448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202557696"/>
+        <c:axId val="202022912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202592256"/>
+        <c:crossAx val="202024448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2064,7 +2116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202592256"/>
+        <c:axId val="202024448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202557696"/>
+        <c:crossAx val="202022912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2245,26 +2297,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-5'!$P$23:$U$23</c:f>
+              <c:f>'Iteration-5'!$P$13:$U$13</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.166666666666664</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -2282,11 +2334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202635136"/>
-        <c:axId val="202636672"/>
+        <c:axId val="202603520"/>
+        <c:axId val="202605312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202635136"/>
+        <c:axId val="202603520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202636672"/>
+        <c:crossAx val="202605312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2304,7 +2356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202636672"/>
+        <c:axId val="202605312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2367,250 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202635136"/>
+        <c:crossAx val="202603520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal Task Remaining</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration-4'!$P$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WEEK6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration-3'!$P$24:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.833333333333323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Tasks Remaining</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration-4'!$P$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WEEK6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration-6'!$P$13:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="206254080"/>
+        <c:axId val="206255616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="206254080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206255616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="206255616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206254080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2931,6 +3226,124 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="876299"/>
+          <a:ext cx="5848350" cy="1066801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F1FCBC"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1"/>
+            <a:t>Description:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DMS is a desktop application which enables dormitory managers to track students living in their dorms.They will be able to enter students' registrations including student's information (names, surnames, e-mails etc), residents' fees, debts and also they can define the room types and their prices. Besides, this program shows the room of the students and their start/end dates of staying in the dorm.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>721178</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3220,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="G11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,14 +3658,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3291,22 +3704,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="80" t="s">
+      <c r="J11" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -3865,8 +4278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,14 +4304,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3937,23 +4350,23 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="82" t="s">
+      <c r="J11" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="85"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
@@ -4631,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V37"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4655,18 +5068,18 @@
     <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="81" t="s">
+    <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
@@ -4674,50 +5087,50 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="80" t="s">
+    <row r="11" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-    </row>
-    <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="80" t="s">
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+    </row>
+    <row r="12" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="48"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -4736,7 +5149,7 @@
       </c>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
         <v>17</v>
       </c>
@@ -4770,8 +5183,20 @@
       <c r="N13" s="35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>65</v>
+      </c>
+      <c r="Q13">
+        <v>52</v>
+      </c>
+      <c r="R13">
+        <v>41</v>
+      </c>
+      <c r="S13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
@@ -4806,7 +5231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>5</v>
       </c>
@@ -4827,7 +5252,7 @@
         <v>19</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
@@ -4839,7 +5264,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C16" s="23" t="s">
         <v>6</v>
       </c>
@@ -4999,13 +5424,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M20" s="2">
         <v>3</v>
@@ -5038,10 +5463,10 @@
       </c>
       <c r="H21" s="42"/>
       <c r="J21" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>24</v>
@@ -5076,10 +5501,10 @@
         <v>105</v>
       </c>
       <c r="K22" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="26" t="s">
         <v>118</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="27">
         <v>2</v>
@@ -5158,6 +5583,10 @@
       <c r="H24" s="42">
         <v>1</v>
       </c>
+      <c r="K24">
+        <f>41-25</f>
+        <v>16</v>
+      </c>
       <c r="P24">
         <v>65</v>
       </c>
@@ -5224,7 +5653,7 @@
         <v>51</v>
       </c>
       <c r="V25" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.25">
@@ -5272,7 +5701,7 @@
         <v>109</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="E28" s="30">
         <v>4</v>
@@ -5448,8 +5877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5469,19 +5898,19 @@
     <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="81" t="s">
+    <row r="1" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
@@ -5489,50 +5918,50 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="80" t="s">
+    <row r="11" spans="2:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-    </row>
-    <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="80" t="s">
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+    </row>
+    <row r="12" spans="2:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="63"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -5551,7 +5980,7 @@
       </c>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
         <v>17</v>
       </c>
@@ -5571,14 +6000,14 @@
         <v>70</v>
       </c>
       <c r="J13" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="M13" s="2">
         <v>1</v>
       </c>
@@ -5586,7 +6015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
@@ -5606,13 +6035,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="L14" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
@@ -5620,8 +6049,23 @@
       <c r="N14" s="35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>65</v>
+      </c>
+      <c r="Q14">
+        <v>52</v>
+      </c>
+      <c r="R14">
+        <v>41</v>
+      </c>
+      <c r="S14">
+        <v>30</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>5</v>
       </c>
@@ -5639,13 +6083,13 @@
       </c>
       <c r="H15" s="54"/>
       <c r="J15" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="L15" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M15" s="12">
         <v>2</v>
@@ -5654,7 +6098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C16" s="23" t="s">
         <v>6</v>
       </c>
@@ -5674,13 +6118,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M16" s="14">
         <v>1</v>
@@ -5709,13 +6153,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L17" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M17" s="64">
         <v>1</v>
@@ -5748,13 +6192,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M18" s="14">
         <v>1</v>
@@ -5783,13 +6227,13 @@
         <v>0.3</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L19" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M19" s="2">
         <v>2</v>
@@ -5818,13 +6262,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="2">
         <v>1</v>
@@ -5859,13 +6303,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="L21" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="M21" s="64">
         <v>2</v>
@@ -5894,13 +6338,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="64">
         <v>2</v>
@@ -5935,13 +6379,13 @@
       </c>
       <c r="H23" s="54"/>
       <c r="J23" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L23" s="68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M23" s="27">
         <v>1</v>
@@ -6063,7 +6507,7 @@
         <v>51</v>
       </c>
       <c r="V25" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.25">
@@ -6111,7 +6555,7 @@
         <v>109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2">
         <v>4</v>
@@ -6140,10 +6584,10 @@
     </row>
     <row r="29" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="E29" s="30">
         <v>4</v>
@@ -6304,12 +6748,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -6326,18 +6771,18 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="81" t="s">
+    <row r="2" spans="2:21" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
@@ -6345,50 +6790,50 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="80" t="s">
+    <row r="11" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-    </row>
-    <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="80" t="s">
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+    </row>
+    <row r="12" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="78"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -6407,7 +6852,7 @@
       </c>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
         <v>17</v>
       </c>
@@ -6427,10 +6872,10 @@
         <v>70</v>
       </c>
       <c r="J13" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>25</v>
@@ -6441,8 +6886,26 @@
       <c r="N13" s="35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>65</v>
+      </c>
+      <c r="Q13">
+        <v>52</v>
+      </c>
+      <c r="R13">
+        <v>41</v>
+      </c>
+      <c r="S13">
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
+      </c>
+      <c r="U13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
@@ -6462,13 +6925,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="L14" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M14" s="79">
         <v>2</v>
@@ -6477,7 +6940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>5</v>
       </c>
@@ -6495,10 +6958,10 @@
       </c>
       <c r="H15" s="54"/>
       <c r="J15" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L15" s="61" t="s">
         <v>21</v>
@@ -6510,7 +6973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C16" s="23" t="s">
         <v>6</v>
       </c>
@@ -6530,10 +6993,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L16" s="61" t="s">
         <v>21</v>
@@ -6550,7 +7013,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
@@ -6565,10 +7028,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L17" s="61" t="s">
         <v>21</v>
@@ -6604,13 +7067,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="L18" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M18" s="14">
         <v>2</v>
@@ -6639,10 +7102,10 @@
         <v>0.8</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L19" s="61" t="s">
         <v>21</v>
@@ -6674,10 +7137,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>24</v>
@@ -6715,10 +7178,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>22</v>
@@ -6829,7 +7292,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M24" s="6">
         <f>SUM(M13:M23)</f>
@@ -6902,7 +7365,7 @@
         <v>51</v>
       </c>
       <c r="V25" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.25">
@@ -6950,7 +7413,7 @@
         <v>109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2">
         <v>4</v>
@@ -6979,10 +7442,10 @@
     </row>
     <row r="29" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="E29" s="30">
         <v>4</v>
@@ -7110,7 +7573,7 @@
         <v>-9</v>
       </c>
       <c r="T35" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="14:20" x14ac:dyDescent="0.25">
@@ -7145,12 +7608,788 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:V36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+    </row>
+    <row r="12" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="80"/>
+      <c r="J12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13">
+        <v>65</v>
+      </c>
+      <c r="Q13">
+        <v>52</v>
+      </c>
+      <c r="R13">
+        <v>41</v>
+      </c>
+      <c r="S13">
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
+      </c>
+      <c r="U13">
+        <v>14</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="54">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="79">
+        <v>1</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="54">
+        <v>1</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="54">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="54">
+        <v>1</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17">
+        <f>65/6</f>
+        <v>10.833333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="54">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="14">
+        <v>2</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="54">
+        <v>1</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="2">
+        <v>3</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="54">
+        <v>1</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20">
+        <v>65</v>
+      </c>
+      <c r="Q20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="54">
+        <v>1</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="54">
+        <v>1</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="35"/>
+      <c r="P22">
+        <f>P23</f>
+        <v>65</v>
+      </c>
+      <c r="Q22">
+        <f>P22-R35</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="54">
+        <v>1</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="47"/>
+      <c r="P23">
+        <f>P24</f>
+        <v>65</v>
+      </c>
+      <c r="Q23" s="65">
+        <f>Q24+(R35-Q35)</f>
+        <v>54.166666666666664</v>
+      </c>
+      <c r="R23">
+        <v>41</v>
+      </c>
+      <c r="S23">
+        <v>25</v>
+      </c>
+      <c r="T23">
+        <v>18</v>
+      </c>
+      <c r="U23">
+        <f>T23-M24+7</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="54">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24" s="6">
+        <f>SUM(M13:M23)</f>
+        <v>14</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="P24">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="65">
+        <f>P24-Q17</f>
+        <v>54.166666666666664</v>
+      </c>
+      <c r="R24" s="65">
+        <f>Q24-Q17</f>
+        <v>43.333333333333329</v>
+      </c>
+      <c r="S24" s="65">
+        <f>R24-Q17</f>
+        <v>32.499999999999993</v>
+      </c>
+      <c r="T24" s="65">
+        <f>S24-Q17</f>
+        <v>21.666666666666657</v>
+      </c>
+      <c r="U24" s="65">
+        <f>T24-Q17</f>
+        <v>10.833333333333323</v>
+      </c>
+      <c r="V24" s="65">
+        <f>U24-Q17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="54">
+        <v>1</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="V25" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="15">
+        <v>3</v>
+      </c>
+      <c r="F26" s="15">
+        <v>5</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="54">
+        <v>1</v>
+      </c>
+      <c r="P28" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="30">
+        <v>4</v>
+      </c>
+      <c r="F29" s="30">
+        <v>5</v>
+      </c>
+      <c r="G29" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="76">
+        <v>1</v>
+      </c>
+      <c r="P29" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="39"/>
+    </row>
+    <row r="30" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="17"/>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4">
+        <f>SUM(F14:F29)</f>
+        <v>70</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="P30" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+    </row>
+    <row r="31" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+    </row>
+    <row r="32" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+    </row>
+    <row r="33" spans="16:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="38">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+    </row>
+    <row r="34" spans="16:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+    </row>
+    <row r="35" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P35" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>